--- a/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/Price.xlsx
+++ b/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\TAFE\Dual-Diploma-2024\Semester-2\Data-and-Machine-Learning\Assessments\AT1-OptimisingPrice-Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F971C5-401A-4ADB-915F-A7F4E587F2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB726B31-3D66-435B-8271-51C26A896A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -388,7 +388,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -485,16 +485,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -817,8 +809,8 @@
   </sheetPr>
   <dimension ref="A1:X245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,10 +825,10 @@
     <col min="10" max="10" width="12.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="38" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -865,10 +857,10 @@
       </c>
       <c r="G1" s="33"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -882,15 +874,15 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D2" s="7">
-        <f>C2*B2</f>
+        <f t="shared" ref="D2:D33" si="0">C2*B2</f>
         <v>58.41</v>
       </c>
       <c r="E2" s="7">
-        <f>C2*3</f>
+        <f t="shared" ref="E2:E65" si="1">C2*3</f>
         <v>5.31</v>
       </c>
       <c r="F2" s="7">
-        <f>E2*B2</f>
+        <f t="shared" ref="F2:F65" si="2">E2*B2</f>
         <v>175.23</v>
       </c>
       <c r="G2" s="7"/>
@@ -907,15 +899,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D3" s="7">
-        <f>C3*B3</f>
+        <f t="shared" si="0"/>
         <v>303.63</v>
       </c>
       <c r="E3" s="7">
-        <f>C3*3</f>
+        <f t="shared" si="1"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F3" s="7">
-        <f>E3*B3</f>
+        <f t="shared" si="2"/>
         <v>910.88999999999987</v>
       </c>
       <c r="G3" s="7"/>
@@ -932,15 +924,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D4" s="7">
-        <f>C4*B4</f>
+        <f t="shared" si="0"/>
         <v>108.46</v>
       </c>
       <c r="E4" s="7">
-        <f>C4*3</f>
+        <f t="shared" si="1"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F4" s="7">
-        <f>E4*B4</f>
+        <f t="shared" si="2"/>
         <v>325.38</v>
       </c>
       <c r="G4" s="7"/>
@@ -948,7 +940,7 @@
       <c r="M4" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="36" t="s">
         <v>56</v>
       </c>
     </row>
@@ -963,15 +955,15 @@
         <v>1.87</v>
       </c>
       <c r="D5" s="7">
-        <f>C5*B5</f>
+        <f t="shared" si="0"/>
         <v>153.34</v>
       </c>
       <c r="E5" s="7">
-        <f>C5*3</f>
+        <f t="shared" si="1"/>
         <v>5.61</v>
       </c>
       <c r="F5" s="7">
-        <f>E5*B5</f>
+        <f t="shared" si="2"/>
         <v>460.02000000000004</v>
       </c>
       <c r="G5" s="7"/>
@@ -979,11 +971,11 @@
       <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="41">
         <f>J7 / O$26</f>
         <v>0.13081207097526226</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="42">
         <f>M5*S$26</f>
         <v>117.73086387773604</v>
       </c>
@@ -999,15 +991,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D6" s="7">
-        <f>C6*B6</f>
+        <f t="shared" si="0"/>
         <v>82.84</v>
       </c>
       <c r="E6" s="7">
-        <f>C6*3</f>
+        <f t="shared" si="1"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F6" s="7">
-        <f>E6*B6</f>
+        <f t="shared" si="2"/>
         <v>248.52000000000004</v>
       </c>
       <c r="G6" s="7"/>
@@ -1018,11 +1010,11 @@
       <c r="J6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="41">
         <f>J8 / O$26</f>
         <v>9.7137676466778913E-2</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="42">
         <f>M6*S$26</f>
         <v>87.423908820101019</v>
       </c>
@@ -1038,15 +1030,15 @@
         <v>1.77</v>
       </c>
       <c r="D7" s="7">
-        <f>C7*B7</f>
+        <f t="shared" si="0"/>
         <v>95.58</v>
       </c>
       <c r="E7" s="7">
-        <f>C7*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F7" s="7">
-        <f>E7*B7</f>
+        <f t="shared" si="2"/>
         <v>286.74</v>
       </c>
       <c r="G7" s="7"/>
@@ -1058,11 +1050,11 @@
         <v>2020</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="M7" s="45">
+      <c r="M7" s="41">
         <f>J9 / O$26</f>
         <v>0.11332728921124206</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="42">
         <f>M7*S$26</f>
         <v>101.99456029011786</v>
       </c>
@@ -1078,15 +1070,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D8" s="7">
-        <f>C8*B8</f>
+        <f t="shared" si="0"/>
         <v>520.01</v>
       </c>
       <c r="E8" s="7">
-        <f>C8*3</f>
+        <f t="shared" si="1"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F8" s="7">
-        <f>E8*B8</f>
+        <f t="shared" si="2"/>
         <v>1560.0299999999997</v>
       </c>
       <c r="G8" s="7"/>
@@ -1098,10 +1090,10 @@
         <v>1500</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="M8" s="37" t="s">
+      <c r="M8" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="38">
         <f>SUM(N5:N7)</f>
         <v>307.14933298795495</v>
       </c>
@@ -1117,15 +1109,15 @@
         <v>1.77</v>
       </c>
       <c r="D9" s="7">
-        <f>C9*B9</f>
+        <f t="shared" si="0"/>
         <v>90.27</v>
       </c>
       <c r="E9" s="7">
-        <f>C9*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F9" s="7">
-        <f>E9*B9</f>
+        <f t="shared" si="2"/>
         <v>270.81</v>
       </c>
       <c r="G9" s="7"/>
@@ -1149,15 +1141,15 @@
         <v>1.77</v>
       </c>
       <c r="D10" s="7">
-        <f>C10*B10</f>
+        <f t="shared" si="0"/>
         <v>177</v>
       </c>
       <c r="E10" s="7">
-        <f>C10*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F10" s="7">
-        <f>E10*B10</f>
+        <f t="shared" si="2"/>
         <v>531</v>
       </c>
       <c r="G10" s="7"/>
@@ -1174,15 +1166,15 @@
         <v>1.35</v>
       </c>
       <c r="D11" s="7">
-        <f>C11*B11</f>
+        <f t="shared" si="0"/>
         <v>37.800000000000004</v>
       </c>
       <c r="E11" s="7">
-        <f>C11*3</f>
+        <f t="shared" si="1"/>
         <v>4.0500000000000007</v>
       </c>
       <c r="F11" s="7">
-        <f>E11*B11</f>
+        <f t="shared" si="2"/>
         <v>113.40000000000002</v>
       </c>
       <c r="G11" s="7"/>
@@ -1213,15 +1205,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D12" s="7">
-        <f>C12*B12</f>
+        <f t="shared" si="0"/>
         <v>78.48</v>
       </c>
       <c r="E12" s="7">
-        <f>C12*3</f>
+        <f t="shared" si="1"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F12" s="7">
-        <f>E12*B12</f>
+        <f t="shared" si="2"/>
         <v>235.44000000000003</v>
       </c>
       <c r="G12" s="7"/>
@@ -1244,15 +1236,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D13" s="7">
-        <f>C13*B13</f>
+        <f t="shared" si="0"/>
         <v>57.97</v>
       </c>
       <c r="E13" s="7">
-        <f>C13*3</f>
+        <f t="shared" si="1"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F13" s="7">
-        <f>E13*B13</f>
+        <f t="shared" si="2"/>
         <v>173.90999999999997</v>
       </c>
       <c r="G13" s="7"/>
@@ -1275,25 +1267,24 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D14" s="7">
-        <f>C14*B14</f>
+        <f t="shared" si="0"/>
         <v>97.72</v>
       </c>
       <c r="E14" s="7">
-        <f>C14*3</f>
+        <f t="shared" si="1"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F14" s="7">
-        <f>E14*B14</f>
+        <f t="shared" si="2"/>
         <v>293.15999999999997</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="M14"/>
       <c r="N14"/>
-      <c r="O14" s="37"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
+      <c r="O14"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
     </row>
     <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1306,20 +1297,20 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D15" s="7">
-        <f>C15*B15</f>
+        <f t="shared" si="0"/>
         <v>77.88</v>
       </c>
       <c r="E15" s="7">
-        <f>C15*3</f>
+        <f t="shared" si="1"/>
         <v>5.31</v>
       </c>
       <c r="F15" s="7">
-        <f>E15*B15</f>
+        <f t="shared" si="2"/>
         <v>233.64</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="43" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="5">
@@ -1329,29 +1320,28 @@
       <c r="K15" t="s">
         <v>59</v>
       </c>
-      <c r="M15"/>
       <c r="N15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="43" t="s">
+      <c r="P15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="Q15" s="43" t="s">
+      <c r="Q15" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="S15" s="38" t="s">
         <v>49</v>
       </c>
       <c r="T15" t="s">
         <v>50</v>
       </c>
-      <c r="U15" s="43" t="s">
+      <c r="U15" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="V15" s="43" t="s">
+      <c r="V15" s="39" t="s">
         <v>52</v>
       </c>
       <c r="W15" t="s">
@@ -1369,15 +1359,15 @@
         <v>1.77</v>
       </c>
       <c r="D16" s="7">
-        <f>C16*B16</f>
+        <f t="shared" si="0"/>
         <v>40.71</v>
       </c>
       <c r="E16" s="7">
-        <f>C16*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F16" s="7">
-        <f>E16*B16</f>
+        <f t="shared" si="2"/>
         <v>122.13000000000001</v>
       </c>
       <c r="G16" s="7"/>
@@ -1385,47 +1375,46 @@
       <c r="I16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="44">
         <f>J15/U26</f>
         <v>0.6174203410312723</v>
       </c>
       <c r="K16" t="s">
         <v>59</v>
       </c>
-      <c r="M16"/>
       <c r="N16" t="str" cm="1">
         <f t="array" ref="N16:N24">_xlfn.UNIQUE(_xlfn._xlws.FILTER(A2:A300, A2:A300 &lt;&gt; ""))</f>
         <v>Carrot</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16">
         <f>SUMIF(A2:A245, N16, B2:B245)</f>
         <v>4187</v>
       </c>
-      <c r="P16" s="42">
-        <f>IFERROR(INDEX(C2:C300, MATCH(N16, A2:A300, 0)), "")</f>
+      <c r="P16" s="38">
+        <f t="shared" ref="P16:P24" si="3">IFERROR(INDEX(C2:C300, MATCH(N16, A2:A300, 0)), "")</f>
         <v>1.7699999999999998</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="38">
         <f>-P16*O16</f>
         <v>-7410.9899999999989</v>
       </c>
-      <c r="S16" s="44">
+      <c r="S16" s="40">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="T16" s="42">
-        <f>P16*3</f>
+      <c r="T16" s="38">
+        <f t="shared" ref="T16:T24" si="4">P16*3</f>
         <v>5.31</v>
       </c>
-      <c r="U16" s="42">
+      <c r="U16" s="38">
         <f>T16*S16</f>
         <v>531</v>
       </c>
-      <c r="V16" s="42">
-        <f>P16*S16</f>
+      <c r="V16" s="38">
+        <f t="shared" ref="V16:V24" si="5">P16*S16</f>
         <v>176.99999999999997</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="38">
         <f>U16-V16</f>
         <v>354</v>
       </c>
@@ -1441,15 +1430,15 @@
         <v>1.35</v>
       </c>
       <c r="D17" s="7">
-        <f>C17*B17</f>
+        <f t="shared" si="0"/>
         <v>36.450000000000003</v>
       </c>
       <c r="E17" s="7">
-        <f>C17*3</f>
+        <f t="shared" si="1"/>
         <v>4.0500000000000007</v>
       </c>
       <c r="F17" s="7">
-        <f>E17*B17</f>
+        <f t="shared" si="2"/>
         <v>109.35000000000002</v>
       </c>
       <c r="G17" s="7"/>
@@ -1464,40 +1453,39 @@
       <c r="K17" t="s">
         <v>60</v>
       </c>
-      <c r="M17"/>
       <c r="N17" t="str">
         <v>Whole Wheat</v>
       </c>
-      <c r="O17" s="37">
-        <f>SUMIF(A3:A246, N17, B3:B246)</f>
+      <c r="O17">
+        <f t="shared" ref="O16:O24" si="6">SUMIF(A3:A246, N17, B3:B246)</f>
         <v>957</v>
       </c>
-      <c r="P17" s="42">
-        <f>IFERROR(INDEX(C3:C301, MATCH(N17, A3:A301, 0)), "")</f>
+      <c r="P17" s="38">
+        <f t="shared" si="3"/>
         <v>3.4899999999999998</v>
       </c>
-      <c r="Q17" s="42">
-        <f t="shared" ref="Q17:Q24" si="0">-P17*O17</f>
+      <c r="Q17" s="38">
+        <f t="shared" ref="Q17:Q24" si="7">-P17*O17</f>
         <v>-3339.93</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="40">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="T17" s="42">
-        <f>P17*3</f>
+      <c r="T17" s="38">
+        <f t="shared" si="4"/>
         <v>10.469999999999999</v>
       </c>
-      <c r="U17" s="42">
-        <f t="shared" ref="U17:U24" si="1">T17*S17</f>
+      <c r="U17" s="38">
+        <f t="shared" ref="U17:U24" si="8">T17*S17</f>
         <v>1047</v>
       </c>
-      <c r="V17" s="42">
-        <f>P17*S17</f>
+      <c r="V17" s="38">
+        <f t="shared" si="5"/>
         <v>349</v>
       </c>
-      <c r="W17" s="42">
-        <f t="shared" ref="W17:W24" si="2">U17-V17</f>
+      <c r="W17" s="38">
+        <f t="shared" ref="W17:W24" si="9">U17-V17</f>
         <v>698</v>
       </c>
     </row>
@@ -1512,53 +1500,52 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D18" s="7">
-        <f>C18*B18</f>
+        <f t="shared" si="0"/>
         <v>93.739999999999981</v>
       </c>
       <c r="E18" s="7">
-        <f>C18*3</f>
+        <f t="shared" si="1"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="F18" s="7">
-        <f>E18*B18</f>
+        <f t="shared" si="2"/>
         <v>281.21999999999997</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="M18"/>
       <c r="N18" t="str">
         <v>Chocolate Chip</v>
       </c>
-      <c r="O18" s="37">
-        <f>SUMIF(A4:A247, N18, B4:B247)</f>
+      <c r="O18">
+        <f t="shared" si="6"/>
         <v>2445</v>
       </c>
-      <c r="P18" s="42">
-        <f>IFERROR(INDEX(C4:C302, MATCH(N18, A4:A302, 0)), "")</f>
+      <c r="P18" s="38">
+        <f t="shared" si="3"/>
         <v>1.8699999999999999</v>
       </c>
-      <c r="Q18" s="42">
-        <f t="shared" si="0"/>
+      <c r="Q18" s="38">
+        <f t="shared" si="7"/>
         <v>-4572.1499999999996</v>
       </c>
-      <c r="S18" s="44">
+      <c r="S18" s="40">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="T18" s="42">
-        <f>P18*3</f>
+      <c r="T18" s="38">
+        <f t="shared" si="4"/>
         <v>5.6099999999999994</v>
       </c>
-      <c r="U18" s="42">
-        <f t="shared" si="1"/>
+      <c r="U18" s="38">
+        <f t="shared" si="8"/>
         <v>561</v>
       </c>
-      <c r="V18" s="42">
-        <f>P18*S18</f>
+      <c r="V18" s="38">
+        <f t="shared" si="5"/>
         <v>187</v>
       </c>
-      <c r="W18" s="42">
-        <f t="shared" si="2"/>
+      <c r="W18" s="38">
+        <f t="shared" si="9"/>
         <v>374</v>
       </c>
     </row>
@@ -1573,53 +1560,52 @@
         <v>2.84</v>
       </c>
       <c r="D19" s="7">
-        <f>C19*B19</f>
+        <f t="shared" si="0"/>
         <v>349.32</v>
       </c>
       <c r="E19" s="7">
-        <f>C19*3</f>
+        <f t="shared" si="1"/>
         <v>8.52</v>
       </c>
       <c r="F19" s="7">
-        <f>E19*B19</f>
+        <f t="shared" si="2"/>
         <v>1047.96</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="M19"/>
       <c r="N19" t="str">
         <v>Arrowroot</v>
       </c>
-      <c r="O19" s="37">
-        <f>SUMIF(A5:A248, N19, B5:B248)</f>
+      <c r="O19">
+        <f t="shared" si="6"/>
         <v>2445</v>
       </c>
-      <c r="P19" s="42">
-        <f>IFERROR(INDEX(C5:C303, MATCH(N19, A5:A303, 0)), "")</f>
+      <c r="P19" s="38">
+        <f t="shared" si="3"/>
         <v>2.1800000000000002</v>
       </c>
-      <c r="Q19" s="42">
-        <f t="shared" si="0"/>
+      <c r="Q19" s="38">
+        <f t="shared" si="7"/>
         <v>-5330.1</v>
       </c>
-      <c r="S19" s="44">
+      <c r="S19" s="40">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="T19" s="42">
-        <f>P19*3</f>
+      <c r="T19" s="38">
+        <f t="shared" si="4"/>
         <v>6.5400000000000009</v>
       </c>
-      <c r="U19" s="42">
-        <f t="shared" si="1"/>
+      <c r="U19" s="38">
+        <f t="shared" si="8"/>
         <v>654.00000000000011</v>
       </c>
-      <c r="V19" s="42">
-        <f>P19*S19</f>
+      <c r="V19" s="38">
+        <f t="shared" si="5"/>
         <v>218.00000000000003</v>
       </c>
-      <c r="W19" s="42">
-        <f t="shared" si="2"/>
+      <c r="W19" s="38">
+        <f t="shared" si="9"/>
         <v>436.00000000000011</v>
       </c>
     </row>
@@ -1634,15 +1620,15 @@
         <v>1.87</v>
       </c>
       <c r="D20" s="7">
-        <f>C20*B20</f>
+        <f t="shared" si="0"/>
         <v>78.540000000000006</v>
       </c>
       <c r="E20" s="7">
-        <f>C20*3</f>
+        <f t="shared" si="1"/>
         <v>5.61</v>
       </c>
       <c r="F20" s="7">
-        <f>E20*B20</f>
+        <f t="shared" si="2"/>
         <v>235.62</v>
       </c>
       <c r="G20" s="7"/>
@@ -1650,40 +1636,39 @@
       <c r="I20" t="s">
         <v>54</v>
       </c>
-      <c r="M20"/>
       <c r="N20" t="str">
         <v>Potato Chips</v>
       </c>
-      <c r="O20" s="37">
-        <f>SUMIF(A6:A249, N20, B6:B249)</f>
+      <c r="O20">
+        <f t="shared" si="6"/>
         <v>994</v>
       </c>
-      <c r="P20" s="42">
-        <f>IFERROR(INDEX(C6:C304, MATCH(N20, A6:A304, 0)), "")</f>
+      <c r="P20" s="38">
+        <f t="shared" si="3"/>
         <v>1.35</v>
       </c>
-      <c r="Q20" s="42">
-        <f t="shared" si="0"/>
+      <c r="Q20" s="38">
+        <f t="shared" si="7"/>
         <v>-1341.9</v>
       </c>
-      <c r="S20" s="44">
+      <c r="S20" s="40">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="T20" s="42">
-        <f>P20*3</f>
+      <c r="T20" s="38">
+        <f t="shared" si="4"/>
         <v>4.0500000000000007</v>
       </c>
-      <c r="U20" s="42">
-        <f t="shared" si="1"/>
+      <c r="U20" s="38">
+        <f t="shared" si="8"/>
         <v>405.00000000000006</v>
       </c>
-      <c r="V20" s="42">
-        <f>P20*S20</f>
+      <c r="V20" s="38">
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
-      <c r="W20" s="42">
-        <f t="shared" si="2"/>
+      <c r="W20" s="38">
+        <f t="shared" si="9"/>
         <v>270.00000000000006</v>
       </c>
     </row>
@@ -1698,53 +1683,52 @@
         <v>2.84</v>
       </c>
       <c r="D21" s="7">
-        <f>C21*B21</f>
+        <f t="shared" si="0"/>
         <v>93.72</v>
       </c>
       <c r="E21" s="7">
-        <f>C21*3</f>
+        <f t="shared" si="1"/>
         <v>8.52</v>
       </c>
       <c r="F21" s="7">
-        <f>E21*B21</f>
+        <f t="shared" si="2"/>
         <v>281.15999999999997</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="M21"/>
       <c r="N21" t="str">
         <v>Oatmeal Raisin</v>
       </c>
-      <c r="O21" s="37">
-        <f>SUMIF(A7:A250, N21, B7:B250)</f>
+      <c r="O21">
+        <f t="shared" si="6"/>
         <v>2574</v>
       </c>
-      <c r="P21" s="42">
-        <f>IFERROR(INDEX(C7:C305, MATCH(N21, A7:A305, 0)), "")</f>
+      <c r="P21" s="38">
+        <f t="shared" si="3"/>
         <v>2.84</v>
       </c>
-      <c r="Q21" s="42">
-        <f t="shared" si="0"/>
+      <c r="Q21" s="38">
+        <f t="shared" si="7"/>
         <v>-7310.16</v>
       </c>
-      <c r="S21" s="44">
+      <c r="S21" s="40">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="T21" s="42">
-        <f>P21*3</f>
+      <c r="T21" s="38">
+        <f t="shared" si="4"/>
         <v>8.52</v>
       </c>
-      <c r="U21" s="42">
-        <f t="shared" si="1"/>
+      <c r="U21" s="38">
+        <f t="shared" si="8"/>
         <v>852</v>
       </c>
-      <c r="V21" s="42">
-        <f>P21*S21</f>
+      <c r="V21" s="38">
+        <f t="shared" si="5"/>
         <v>284</v>
       </c>
-      <c r="W21" s="42">
-        <f t="shared" si="2"/>
+      <c r="W21" s="38">
+        <f t="shared" si="9"/>
         <v>568</v>
       </c>
     </row>
@@ -1759,53 +1743,52 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D22" s="7">
-        <f>C22*B22</f>
+        <f t="shared" si="0"/>
         <v>158.94999999999999</v>
       </c>
       <c r="E22" s="7">
-        <f>C22*3</f>
+        <f t="shared" si="1"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F22" s="7">
-        <f>E22*B22</f>
+        <f t="shared" si="2"/>
         <v>476.84999999999997</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="M22"/>
       <c r="N22" t="str">
         <v>Bran</v>
       </c>
-      <c r="O22" s="37">
-        <f>SUMIF(A8:A251, N22, B8:B251)</f>
+      <c r="O22">
+        <f t="shared" si="6"/>
         <v>1575</v>
       </c>
-      <c r="P22" s="42">
-        <f>IFERROR(INDEX(C8:C306, MATCH(N22, A8:A306, 0)), "")</f>
+      <c r="P22" s="38">
+        <f t="shared" si="3"/>
         <v>1.87</v>
       </c>
-      <c r="Q22" s="42">
-        <f t="shared" si="0"/>
+      <c r="Q22" s="38">
+        <f t="shared" si="7"/>
         <v>-2945.25</v>
       </c>
-      <c r="S22" s="44">
+      <c r="S22" s="40">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="T22" s="42">
-        <f>P22*3</f>
+      <c r="T22" s="38">
+        <f t="shared" si="4"/>
         <v>5.61</v>
       </c>
-      <c r="U22" s="42">
-        <f t="shared" si="1"/>
+      <c r="U22" s="38">
+        <f t="shared" si="8"/>
         <v>561</v>
       </c>
-      <c r="V22" s="42">
-        <f>P22*S22</f>
+      <c r="V22" s="38">
+        <f t="shared" si="5"/>
         <v>187</v>
       </c>
-      <c r="W22" s="42">
-        <f t="shared" si="2"/>
+      <c r="W22" s="38">
+        <f t="shared" si="9"/>
         <v>374</v>
       </c>
     </row>
@@ -1820,53 +1803,52 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D23" s="7">
-        <f>C23*B23</f>
+        <f t="shared" si="0"/>
         <v>85.2</v>
       </c>
       <c r="E23" s="7">
-        <f>C23*3</f>
+        <f t="shared" si="1"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="F23" s="7">
-        <f>E23*B23</f>
+        <f t="shared" si="2"/>
         <v>255.60000000000005</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="M23"/>
       <c r="N23" t="str">
         <v>Pretzels</v>
       </c>
-      <c r="O23" s="37">
-        <f>SUMIF(A9:A252, N23, B9:B252)</f>
+      <c r="O23">
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
-      <c r="P23" s="42">
-        <f>IFERROR(INDEX(C9:C307, MATCH(N23, A9:A307, 0)), "")</f>
+      <c r="P23" s="38">
+        <f t="shared" si="3"/>
         <v>3.15</v>
       </c>
-      <c r="Q23" s="42">
-        <f t="shared" si="0"/>
+      <c r="Q23" s="38">
+        <f t="shared" si="7"/>
         <v>-585.9</v>
       </c>
-      <c r="S23" s="44">
+      <c r="S23" s="40">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="T23" s="42">
-        <f>P23*3</f>
+      <c r="T23" s="38">
+        <f t="shared" si="4"/>
         <v>9.4499999999999993</v>
       </c>
-      <c r="U23" s="42">
-        <f t="shared" si="1"/>
+      <c r="U23" s="38">
+        <f t="shared" si="8"/>
         <v>944.99999999999989</v>
       </c>
-      <c r="V23" s="42">
-        <f>P23*S23</f>
+      <c r="V23" s="38">
+        <f t="shared" si="5"/>
         <v>315</v>
       </c>
-      <c r="W23" s="42">
-        <f t="shared" si="2"/>
+      <c r="W23" s="38">
+        <f t="shared" si="9"/>
         <v>629.99999999999989</v>
       </c>
     </row>
@@ -1881,53 +1863,52 @@
         <v>1.77</v>
       </c>
       <c r="D24" s="7">
-        <f>C24*B24</f>
+        <f t="shared" si="0"/>
         <v>107.97</v>
       </c>
       <c r="E24" s="7">
-        <f>C24*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F24" s="7">
-        <f>E24*B24</f>
+        <f t="shared" si="2"/>
         <v>323.91000000000003</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="M24"/>
       <c r="N24" t="str">
         <v>Banana</v>
       </c>
-      <c r="O24" s="37">
-        <f>SUMIF(A10:A253, N24, B10:B253)</f>
+      <c r="O24">
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="P24" s="42">
-        <f>IFERROR(INDEX(C10:C308, MATCH(N24, A10:A308, 0)), "")</f>
+      <c r="P24" s="38">
+        <f t="shared" si="3"/>
         <v>2.27</v>
       </c>
-      <c r="Q24" s="42">
-        <f t="shared" si="0"/>
+      <c r="Q24" s="38">
+        <f t="shared" si="7"/>
         <v>-179.33</v>
       </c>
-      <c r="S24" s="44">
+      <c r="S24" s="40">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="T24" s="42">
-        <f>P24*3</f>
+      <c r="T24" s="38">
+        <f t="shared" si="4"/>
         <v>6.8100000000000005</v>
       </c>
-      <c r="U24" s="42">
-        <f t="shared" si="1"/>
+      <c r="U24" s="38">
+        <f t="shared" si="8"/>
         <v>681</v>
       </c>
-      <c r="V24" s="42">
-        <f>P24*S24</f>
+      <c r="V24" s="38">
+        <f t="shared" si="5"/>
         <v>227</v>
       </c>
-      <c r="W24" s="42">
-        <f t="shared" si="2"/>
+      <c r="W24" s="38">
+        <f t="shared" si="9"/>
         <v>454</v>
       </c>
     </row>
@@ -1942,25 +1923,24 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D25" s="7">
-        <f>C25*B25</f>
+        <f t="shared" si="0"/>
         <v>139.6</v>
       </c>
       <c r="E25" s="7">
-        <f>C25*3</f>
+        <f t="shared" si="1"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F25" s="7">
-        <f>E25*B25</f>
+        <f t="shared" si="2"/>
         <v>418.79999999999995</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="M25"/>
       <c r="N25"/>
-      <c r="O25" s="37"/>
-      <c r="Q25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="U25" s="42"/>
+      <c r="O25"/>
+      <c r="Q25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="U25" s="38"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1973,15 +1953,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D26" s="7">
-        <f>C26*B26</f>
+        <f t="shared" si="0"/>
         <v>160.82</v>
       </c>
       <c r="E26" s="7">
-        <f>C26*3</f>
+        <f t="shared" si="1"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F26" s="7">
-        <f>E26*B26</f>
+        <f t="shared" si="2"/>
         <v>482.45999999999992</v>
       </c>
       <c r="G26" s="7"/>
@@ -1990,39 +1970,39 @@
         <v>45</v>
       </c>
       <c r="N26"/>
-      <c r="O26" s="37">
+      <c r="O26">
         <f>SUM(O16:O24)</f>
         <v>15442</v>
       </c>
-      <c r="P26" s="42">
-        <f t="shared" ref="P26:R26" si="3">SUM(P16:P24)</f>
+      <c r="P26" s="38">
+        <f t="shared" ref="P26" si="10">SUM(P16:P24)</f>
         <v>20.79</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="38">
         <f>SUM(Q16:Q24)</f>
         <v>-33015.71</v>
       </c>
-      <c r="S26" s="44">
+      <c r="S26" s="40">
         <f>SUM(S16:S24)</f>
         <v>900</v>
       </c>
-      <c r="T26" s="42">
+      <c r="T26" s="38">
         <f>SUM(T16:T24)</f>
         <v>62.370000000000005</v>
       </c>
-      <c r="U26" s="42">
+      <c r="U26" s="38">
         <f>SUM(U16:U24)</f>
         <v>6237</v>
       </c>
-      <c r="V26" s="42">
+      <c r="V26" s="38">
         <f>SUM(V16:V24)</f>
         <v>2079</v>
       </c>
-      <c r="W26" s="42">
+      <c r="W26" s="38">
         <f>SUM(W16:W24)</f>
         <v>4158</v>
       </c>
-      <c r="X26" s="42"/>
+      <c r="X26" s="38"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2035,28 +2015,27 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D27" s="7">
-        <f>C27*B27</f>
+        <f t="shared" si="0"/>
         <v>67.260000000000005</v>
       </c>
       <c r="E27" s="7">
-        <f>C27*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F27" s="7">
-        <f>E27*B27</f>
+        <f t="shared" si="2"/>
         <v>201.78000000000003</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="M27"/>
       <c r="N27"/>
-      <c r="O27" s="37"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
+      <c r="O27"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
       <c r="W27" t="s">
         <v>53</v>
       </c>
-      <c r="X27" s="42">
+      <c r="X27" s="38">
         <f>X26-SUM(J7:J9)</f>
         <v>-5270</v>
       </c>
@@ -2072,15 +2051,15 @@
         <v>1.68</v>
       </c>
       <c r="D28" s="7">
-        <f>C28*B28</f>
+        <f t="shared" si="0"/>
         <v>114.24</v>
       </c>
       <c r="E28" s="7">
-        <f>C28*3</f>
+        <f t="shared" si="1"/>
         <v>5.04</v>
       </c>
       <c r="F28" s="7">
-        <f>E28*B28</f>
+        <f t="shared" si="2"/>
         <v>342.72</v>
       </c>
       <c r="G28" s="7"/>
@@ -2088,13 +2067,13 @@
       <c r="M28" t="s">
         <v>48</v>
       </c>
-      <c r="N28" s="42">
+      <c r="N28" s="38">
         <f>Q26+U26</f>
         <v>-26778.71</v>
       </c>
-      <c r="O28" s="37"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
+      <c r="O28"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2107,15 +2086,15 @@
         <v>1.87</v>
       </c>
       <c r="D29" s="7">
-        <f>C29*B29</f>
+        <f t="shared" si="0"/>
         <v>72.930000000000007</v>
       </c>
       <c r="E29" s="7">
-        <f>C29*3</f>
+        <f t="shared" si="1"/>
         <v>5.61</v>
       </c>
       <c r="F29" s="7">
-        <f>E29*B29</f>
+        <f t="shared" si="2"/>
         <v>218.79000000000002</v>
       </c>
       <c r="G29" s="7"/>
@@ -2123,13 +2102,13 @@
       <c r="M29" t="s">
         <v>46</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="38">
         <f>N28-SUM(J7:J9)</f>
         <v>-32048.71</v>
       </c>
-      <c r="O29" s="37"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
+      <c r="O29"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2142,24 +2121,23 @@
         <v>1.87</v>
       </c>
       <c r="D30" s="7">
-        <f>C30*B30</f>
+        <f t="shared" si="0"/>
         <v>192.61</v>
       </c>
       <c r="E30" s="7">
-        <f>C30*3</f>
+        <f t="shared" si="1"/>
         <v>5.61</v>
       </c>
       <c r="F30" s="7">
-        <f>E30*B30</f>
+        <f t="shared" si="2"/>
         <v>577.83000000000004</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="M30"/>
       <c r="N30"/>
-      <c r="O30" s="37"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
+      <c r="O30"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2172,24 +2150,23 @@
         <v>2.84</v>
       </c>
       <c r="D31" s="7">
-        <f>C31*B31</f>
+        <f t="shared" si="0"/>
         <v>548.12</v>
       </c>
       <c r="E31" s="7">
-        <f>C31*3</f>
+        <f t="shared" si="1"/>
         <v>8.52</v>
       </c>
       <c r="F31" s="7">
-        <f>E31*B31</f>
+        <f t="shared" si="2"/>
         <v>1644.36</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="M31"/>
       <c r="N31"/>
-      <c r="O31" s="37"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
+      <c r="O31"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2202,15 +2179,15 @@
         <v>1.77</v>
       </c>
       <c r="D32" s="7">
-        <f>C32*B32</f>
+        <f t="shared" si="0"/>
         <v>102.66</v>
       </c>
       <c r="E32" s="7">
-        <f>C32*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F32" s="7">
-        <f>E32*B32</f>
+        <f t="shared" si="2"/>
         <v>307.98</v>
       </c>
       <c r="G32" s="7"/>
@@ -2227,15 +2204,15 @@
         <v>1.68</v>
       </c>
       <c r="D33" s="7">
-        <f>C33*B33</f>
+        <f t="shared" si="0"/>
         <v>114.24</v>
       </c>
       <c r="E33" s="7">
-        <f>C33*3</f>
+        <f t="shared" si="1"/>
         <v>5.04</v>
       </c>
       <c r="F33" s="7">
-        <f>E33*B33</f>
+        <f t="shared" si="2"/>
         <v>342.72</v>
       </c>
       <c r="G33" s="7"/>
@@ -2252,15 +2229,15 @@
         <v>1.77</v>
       </c>
       <c r="D34" s="7">
-        <f>C34*B34</f>
+        <f t="shared" ref="D34:D65" si="11">C34*B34</f>
         <v>161.07</v>
       </c>
       <c r="E34" s="7">
-        <f>C34*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F34" s="7">
-        <f>E34*B34</f>
+        <f t="shared" si="2"/>
         <v>483.21000000000004</v>
       </c>
       <c r="G34" s="7"/>
@@ -2277,15 +2254,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D35" s="7">
-        <f>C35*B35</f>
+        <f t="shared" si="11"/>
         <v>80.27</v>
       </c>
       <c r="E35" s="7">
-        <f>C35*3</f>
+        <f t="shared" si="1"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F35" s="7">
-        <f>E35*B35</f>
+        <f t="shared" si="2"/>
         <v>240.80999999999997</v>
       </c>
       <c r="G35" s="7"/>
@@ -2302,15 +2279,15 @@
         <v>1.68</v>
       </c>
       <c r="D36" s="7">
-        <f>C36*B36</f>
+        <f t="shared" si="11"/>
         <v>47.04</v>
       </c>
       <c r="E36" s="7">
-        <f>C36*3</f>
+        <f t="shared" si="1"/>
         <v>5.04</v>
       </c>
       <c r="F36" s="7">
-        <f>E36*B36</f>
+        <f t="shared" si="2"/>
         <v>141.12</v>
       </c>
       <c r="G36" s="7"/>
@@ -2327,15 +2304,15 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D37" s="7">
-        <f>C37*B37</f>
+        <f t="shared" si="11"/>
         <v>84.96</v>
       </c>
       <c r="E37" s="7">
-        <f>C37*3</f>
+        <f t="shared" si="1"/>
         <v>5.31</v>
       </c>
       <c r="F37" s="7">
-        <f>E37*B37</f>
+        <f t="shared" si="2"/>
         <v>254.88</v>
       </c>
       <c r="G37" s="7"/>
@@ -2352,15 +2329,15 @@
         <v>1.68</v>
       </c>
       <c r="D38" s="7">
-        <f>C38*B38</f>
+        <f t="shared" si="11"/>
         <v>225.12</v>
       </c>
       <c r="E38" s="7">
-        <f>C38*3</f>
+        <f t="shared" si="1"/>
         <v>5.04</v>
       </c>
       <c r="F38" s="7">
-        <f>E38*B38</f>
+        <f t="shared" si="2"/>
         <v>675.36</v>
       </c>
       <c r="G38" s="7"/>
@@ -2377,15 +2354,15 @@
         <v>1.77</v>
       </c>
       <c r="D39" s="7">
-        <f>C39*B39</f>
+        <f t="shared" si="11"/>
         <v>35.4</v>
       </c>
       <c r="E39" s="7">
-        <f>C39*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F39" s="7">
-        <f>E39*B39</f>
+        <f t="shared" si="2"/>
         <v>106.20000000000002</v>
       </c>
       <c r="G39" s="7"/>
@@ -2402,15 +2379,15 @@
         <v>1.77</v>
       </c>
       <c r="D40" s="7">
-        <f>C40*B40</f>
+        <f t="shared" si="11"/>
         <v>93.81</v>
       </c>
       <c r="E40" s="7">
-        <f>C40*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F40" s="7">
-        <f>E40*B40</f>
+        <f t="shared" si="2"/>
         <v>281.43</v>
       </c>
       <c r="G40" s="7"/>
@@ -2427,15 +2404,15 @@
         <v>1.68</v>
       </c>
       <c r="D41" s="7">
-        <f>C41*B41</f>
+        <f t="shared" si="11"/>
         <v>107.52</v>
       </c>
       <c r="E41" s="7">
-        <f>C41*3</f>
+        <f t="shared" si="1"/>
         <v>5.04</v>
       </c>
       <c r="F41" s="7">
-        <f>E41*B41</f>
+        <f t="shared" si="2"/>
         <v>322.56</v>
       </c>
       <c r="G41" s="7"/>
@@ -2452,15 +2429,15 @@
         <v>1.87</v>
       </c>
       <c r="D42" s="7">
-        <f>C42*B42</f>
+        <f t="shared" si="11"/>
         <v>117.81</v>
       </c>
       <c r="E42" s="7">
-        <f>C42*3</f>
+        <f t="shared" si="1"/>
         <v>5.61</v>
       </c>
       <c r="F42" s="7">
-        <f>E42*B42</f>
+        <f t="shared" si="2"/>
         <v>353.43</v>
       </c>
       <c r="G42" s="7"/>
@@ -2477,15 +2454,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D43" s="7">
-        <f>C43*B43</f>
+        <f t="shared" si="11"/>
         <v>196.35</v>
       </c>
       <c r="E43" s="7">
-        <f>C43*3</f>
+        <f t="shared" si="1"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F43" s="7">
-        <f>E43*B43</f>
+        <f t="shared" si="2"/>
         <v>589.04999999999995</v>
       </c>
       <c r="G43" s="7"/>
@@ -2502,15 +2479,15 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D44" s="7">
-        <f>C44*B44</f>
+        <f t="shared" si="11"/>
         <v>391.92</v>
       </c>
       <c r="E44" s="7">
-        <f>C44*3</f>
+        <f t="shared" si="1"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="F44" s="7">
-        <f>E44*B44</f>
+        <f t="shared" si="2"/>
         <v>1175.7600000000002</v>
       </c>
       <c r="G44" s="7"/>
@@ -2527,15 +2504,15 @@
         <v>1.77</v>
       </c>
       <c r="D45" s="7">
-        <f>C45*B45</f>
+        <f t="shared" si="11"/>
         <v>44.25</v>
       </c>
       <c r="E45" s="7">
-        <f>C45*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F45" s="7">
-        <f>E45*B45</f>
+        <f t="shared" si="2"/>
         <v>132.75</v>
       </c>
       <c r="G45" s="7"/>
@@ -2552,15 +2529,15 @@
         <v>3.49</v>
       </c>
       <c r="D46" s="7">
-        <f>C46*B46</f>
+        <f t="shared" si="11"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E46" s="7">
-        <f>C46*3</f>
+        <f t="shared" si="1"/>
         <v>10.47</v>
       </c>
       <c r="F46" s="7">
-        <f>E46*B46</f>
+        <f t="shared" si="2"/>
         <v>219.87</v>
       </c>
       <c r="G46" s="7"/>
@@ -2577,15 +2554,15 @@
         <v>1.77</v>
       </c>
       <c r="D47" s="7">
-        <f>C47*B47</f>
+        <f t="shared" si="11"/>
         <v>107.97</v>
       </c>
       <c r="E47" s="7">
-        <f>C47*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F47" s="7">
-        <f>E47*B47</f>
+        <f t="shared" si="2"/>
         <v>323.91000000000003</v>
       </c>
       <c r="G47" s="7"/>
@@ -2602,15 +2579,15 @@
         <v>1.68</v>
       </c>
       <c r="D48" s="7">
-        <f>C48*B48</f>
+        <f t="shared" si="11"/>
         <v>82.32</v>
       </c>
       <c r="E48" s="7">
-        <f>C48*3</f>
+        <f t="shared" si="1"/>
         <v>5.04</v>
       </c>
       <c r="F48" s="7">
-        <f>E48*B48</f>
+        <f t="shared" si="2"/>
         <v>246.96</v>
       </c>
       <c r="G48" s="7"/>
@@ -2627,15 +2604,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D49" s="7">
-        <f>C49*B49</f>
+        <f t="shared" si="11"/>
         <v>102.85</v>
       </c>
       <c r="E49" s="7">
-        <f>C49*3</f>
+        <f t="shared" si="1"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F49" s="7">
-        <f>E49*B49</f>
+        <f t="shared" si="2"/>
         <v>308.54999999999995</v>
       </c>
       <c r="G49" s="7"/>
@@ -2652,15 +2629,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D50" s="7">
-        <f>C50*B50</f>
+        <f t="shared" si="11"/>
         <v>58.860000000000007</v>
       </c>
       <c r="E50" s="7">
-        <f>C50*3</f>
+        <f t="shared" si="1"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F50" s="7">
-        <f>E50*B50</f>
+        <f t="shared" si="2"/>
         <v>176.58</v>
       </c>
       <c r="G50" s="7"/>
@@ -2677,15 +2654,15 @@
         <v>1.77</v>
       </c>
       <c r="D51" s="7">
-        <f>C51*B51</f>
+        <f t="shared" si="11"/>
         <v>102.66</v>
       </c>
       <c r="E51" s="7">
-        <f>C51*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F51" s="7">
-        <f>E51*B51</f>
+        <f t="shared" si="2"/>
         <v>307.98</v>
       </c>
       <c r="G51" s="7"/>
@@ -2702,15 +2679,15 @@
         <v>3.49</v>
       </c>
       <c r="D52" s="7">
-        <f>C52*B52</f>
+        <f t="shared" si="11"/>
         <v>115.17</v>
       </c>
       <c r="E52" s="7">
-        <f>C52*3</f>
+        <f t="shared" si="1"/>
         <v>10.47</v>
       </c>
       <c r="F52" s="7">
-        <f>E52*B52</f>
+        <f t="shared" si="2"/>
         <v>345.51000000000005</v>
       </c>
       <c r="G52" s="7"/>
@@ -2727,15 +2704,15 @@
         <v>2.84</v>
       </c>
       <c r="D53" s="7">
-        <f>C53*B53</f>
+        <f t="shared" si="11"/>
         <v>817.92</v>
       </c>
       <c r="E53" s="7">
-        <f>C53*3</f>
+        <f t="shared" si="1"/>
         <v>8.52</v>
       </c>
       <c r="F53" s="7">
-        <f>E53*B53</f>
+        <f t="shared" si="2"/>
         <v>2453.7599999999998</v>
       </c>
       <c r="G53" s="7"/>
@@ -2752,15 +2729,15 @@
         <v>1.87</v>
       </c>
       <c r="D54" s="7">
-        <f>C54*B54</f>
+        <f t="shared" si="11"/>
         <v>142.12</v>
       </c>
       <c r="E54" s="7">
-        <f>C54*3</f>
+        <f t="shared" si="1"/>
         <v>5.61</v>
       </c>
       <c r="F54" s="7">
-        <f>E54*B54</f>
+        <f t="shared" si="2"/>
         <v>426.36</v>
       </c>
       <c r="G54" s="7"/>
@@ -2777,15 +2754,15 @@
         <v>1.77</v>
       </c>
       <c r="D55" s="7">
-        <f>C55*B55</f>
+        <f t="shared" si="11"/>
         <v>74.34</v>
       </c>
       <c r="E55" s="7">
-        <f>C55*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F55" s="7">
-        <f>E55*B55</f>
+        <f t="shared" si="2"/>
         <v>223.02</v>
       </c>
       <c r="G55" s="7"/>
@@ -2802,15 +2779,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D56" s="7">
-        <f>C56*B56</f>
+        <f t="shared" si="11"/>
         <v>69.8</v>
       </c>
       <c r="E56" s="7">
-        <f>C56*3</f>
+        <f t="shared" si="1"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F56" s="7">
-        <f>E56*B56</f>
+        <f t="shared" si="2"/>
         <v>209.39999999999998</v>
       </c>
       <c r="G56" s="7"/>
@@ -2827,15 +2804,15 @@
         <v>1.77</v>
       </c>
       <c r="D57" s="7">
-        <f>C57*B57</f>
+        <f t="shared" si="11"/>
         <v>132.75</v>
       </c>
       <c r="E57" s="7">
-        <f>C57*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F57" s="7">
-        <f>E57*B57</f>
+        <f t="shared" si="2"/>
         <v>398.25000000000006</v>
       </c>
       <c r="G57" s="7"/>
@@ -2852,15 +2829,15 @@
         <v>3.49</v>
       </c>
       <c r="D58" s="7">
-        <f>C58*B58</f>
+        <f t="shared" si="11"/>
         <v>132.62</v>
       </c>
       <c r="E58" s="7">
-        <f>C58*3</f>
+        <f t="shared" si="1"/>
         <v>10.47</v>
       </c>
       <c r="F58" s="7">
-        <f>E58*B58</f>
+        <f t="shared" si="2"/>
         <v>397.86</v>
       </c>
       <c r="G58" s="7"/>
@@ -2877,15 +2854,15 @@
         <v>1.77</v>
       </c>
       <c r="D59" s="7">
-        <f>C59*B59</f>
+        <f t="shared" si="11"/>
         <v>541.62</v>
       </c>
       <c r="E59" s="7">
-        <f>C59*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F59" s="7">
-        <f>E59*B59</f>
+        <f t="shared" si="2"/>
         <v>1624.8600000000001</v>
       </c>
       <c r="G59" s="7"/>
@@ -2902,15 +2879,15 @@
         <v>1.68</v>
       </c>
       <c r="D60" s="7">
-        <f>C60*B60</f>
+        <f t="shared" si="11"/>
         <v>47.04</v>
       </c>
       <c r="E60" s="7">
-        <f>C60*3</f>
+        <f t="shared" si="1"/>
         <v>5.04</v>
       </c>
       <c r="F60" s="7">
-        <f>E60*B60</f>
+        <f t="shared" si="2"/>
         <v>141.12</v>
       </c>
       <c r="G60" s="7"/>
@@ -2927,15 +2904,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D61" s="7">
-        <f>C61*B61</f>
+        <f t="shared" si="11"/>
         <v>205.7</v>
       </c>
       <c r="E61" s="7">
-        <f>C61*3</f>
+        <f t="shared" si="1"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F61" s="7">
-        <f>E61*B61</f>
+        <f t="shared" si="2"/>
         <v>617.09999999999991</v>
       </c>
       <c r="G61" s="7"/>
@@ -2952,15 +2929,15 @@
         <v>2.84</v>
       </c>
       <c r="D62" s="7">
-        <f>C62*B62</f>
+        <f t="shared" si="11"/>
         <v>144.84</v>
       </c>
       <c r="E62" s="7">
-        <f>C62*3</f>
+        <f t="shared" si="1"/>
         <v>8.52</v>
       </c>
       <c r="F62" s="7">
-        <f>E62*B62</f>
+        <f t="shared" si="2"/>
         <v>434.52</v>
       </c>
       <c r="G62" s="7"/>
@@ -2977,15 +2954,15 @@
         <v>1.77</v>
       </c>
       <c r="D63" s="7">
-        <f>C63*B63</f>
+        <f t="shared" si="11"/>
         <v>92.04</v>
       </c>
       <c r="E63" s="7">
-        <f>C63*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F63" s="7">
-        <f>E63*B63</f>
+        <f t="shared" si="2"/>
         <v>276.12</v>
       </c>
       <c r="G63" s="7"/>
@@ -3002,15 +2979,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D64" s="7">
-        <f>C64*B64</f>
+        <f t="shared" si="11"/>
         <v>97.72</v>
       </c>
       <c r="E64" s="7">
-        <f>C64*3</f>
+        <f t="shared" si="1"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F64" s="7">
-        <f>E64*B64</f>
+        <f t="shared" si="2"/>
         <v>293.15999999999997</v>
       </c>
       <c r="G64" s="7"/>
@@ -3027,15 +3004,15 @@
         <v>1.77</v>
       </c>
       <c r="D65" s="7">
-        <f>C65*B65</f>
+        <f t="shared" si="11"/>
         <v>240.72</v>
       </c>
       <c r="E65" s="7">
-        <f>C65*3</f>
+        <f t="shared" si="1"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F65" s="7">
-        <f>E65*B65</f>
+        <f t="shared" si="2"/>
         <v>722.16000000000008</v>
       </c>
       <c r="G65" s="7"/>
@@ -3052,15 +3029,15 @@
         <v>3.49</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" ref="D66:D129" si="4">C66*B66</f>
+        <f t="shared" ref="D66:D129" si="12">C66*B66</f>
         <v>146.58000000000001</v>
       </c>
       <c r="E66" s="7">
-        <f>C66*3</f>
+        <f t="shared" ref="E66:E129" si="13">C66*3</f>
         <v>10.47</v>
       </c>
       <c r="F66" s="7">
-        <f>E66*B66</f>
+        <f t="shared" ref="F66:F129" si="14">E66*B66</f>
         <v>439.74</v>
       </c>
       <c r="G66" s="7"/>
@@ -3077,15 +3054,15 @@
         <v>1.87</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>140.25</v>
       </c>
       <c r="E67" s="7">
-        <f>C67*3</f>
+        <f t="shared" si="13"/>
         <v>5.61</v>
       </c>
       <c r="F67" s="7">
-        <f>E67*B67</f>
+        <f t="shared" si="14"/>
         <v>420.75</v>
       </c>
       <c r="G67" s="7"/>
@@ -3102,15 +3079,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>134.63999999999999</v>
       </c>
       <c r="E68" s="7">
-        <f>C68*3</f>
+        <f t="shared" si="13"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F68" s="7">
-        <f>E68*B68</f>
+        <f t="shared" si="14"/>
         <v>403.91999999999996</v>
       </c>
       <c r="G68" s="7"/>
@@ -3127,15 +3104,15 @@
         <v>2.84</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>159.04</v>
       </c>
       <c r="E69" s="7">
-        <f>C69*3</f>
+        <f t="shared" si="13"/>
         <v>8.52</v>
       </c>
       <c r="F69" s="7">
-        <f>E69*B69</f>
+        <f t="shared" si="14"/>
         <v>477.12</v>
       </c>
       <c r="G69" s="7"/>
@@ -3152,15 +3129,15 @@
         <v>1.87</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>95.37</v>
       </c>
       <c r="E70" s="7">
-        <f>C70*3</f>
+        <f t="shared" si="13"/>
         <v>5.61</v>
       </c>
       <c r="F70" s="7">
-        <f>E70*B70</f>
+        <f t="shared" si="14"/>
         <v>286.11</v>
       </c>
       <c r="G70" s="7"/>
@@ -3177,15 +3154,15 @@
         <v>1.68</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>52.08</v>
       </c>
       <c r="E71" s="7">
-        <f>C71*3</f>
+        <f t="shared" si="13"/>
         <v>5.04</v>
       </c>
       <c r="F71" s="7">
-        <f>E71*B71</f>
+        <f t="shared" si="14"/>
         <v>156.24</v>
       </c>
       <c r="G71" s="7"/>
@@ -3202,15 +3179,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>104.72</v>
       </c>
       <c r="E72" s="7">
-        <f>C72*3</f>
+        <f t="shared" si="13"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F72" s="7">
-        <f>E72*B72</f>
+        <f t="shared" si="14"/>
         <v>314.15999999999997</v>
       </c>
       <c r="G72" s="7"/>
@@ -3227,15 +3204,15 @@
         <v>2.84</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>389.08</v>
       </c>
       <c r="E73" s="7">
-        <f>C73*3</f>
+        <f t="shared" si="13"/>
         <v>8.52</v>
       </c>
       <c r="F73" s="7">
-        <f>E73*B73</f>
+        <f t="shared" si="14"/>
         <v>1167.24</v>
       </c>
       <c r="G73" s="7"/>
@@ -3252,15 +3229,15 @@
         <v>1.87</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>200.09</v>
       </c>
       <c r="E74" s="7">
-        <f>C74*3</f>
+        <f t="shared" si="13"/>
         <v>5.61</v>
       </c>
       <c r="F74" s="7">
-        <f>E74*B74</f>
+        <f t="shared" si="14"/>
         <v>600.27</v>
       </c>
       <c r="G74" s="7"/>
@@ -3277,15 +3254,15 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>42.48</v>
       </c>
       <c r="E75" s="7">
-        <f>C75*3</f>
+        <f t="shared" si="13"/>
         <v>5.31</v>
       </c>
       <c r="F75" s="7">
-        <f>E75*B75</f>
+        <f t="shared" si="14"/>
         <v>127.44</v>
       </c>
       <c r="G75" s="7"/>
@@ -3302,15 +3279,15 @@
         <v>3.49</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>104.7</v>
       </c>
       <c r="E76" s="7">
-        <f>C76*3</f>
+        <f t="shared" si="13"/>
         <v>10.47</v>
       </c>
       <c r="F76" s="7">
-        <f>E76*B76</f>
+        <f t="shared" si="14"/>
         <v>314.10000000000002</v>
       </c>
       <c r="G76" s="7"/>
@@ -3327,15 +3304,15 @@
         <v>1.87</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>130.9</v>
       </c>
       <c r="E77" s="7">
-        <f>C77*3</f>
+        <f t="shared" si="13"/>
         <v>5.61</v>
       </c>
       <c r="F77" s="7">
-        <f>E77*B77</f>
+        <f t="shared" si="14"/>
         <v>392.70000000000005</v>
       </c>
       <c r="G77" s="7"/>
@@ -3352,15 +3329,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>67.58</v>
       </c>
       <c r="E78" s="7">
-        <f>C78*3</f>
+        <f t="shared" si="13"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F78" s="7">
-        <f>E78*B78</f>
+        <f t="shared" si="14"/>
         <v>202.74000000000004</v>
       </c>
       <c r="G78" s="7"/>
@@ -3377,15 +3354,15 @@
         <v>1.77</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>192.93</v>
       </c>
       <c r="E79" s="7">
-        <f>C79*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F79" s="7">
-        <f>E79*B79</f>
+        <f t="shared" si="14"/>
         <v>578.79000000000008</v>
       </c>
       <c r="G79" s="7"/>
@@ -3402,15 +3379,15 @@
         <v>3.49</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E80" s="7">
-        <f>C80*3</f>
+        <f t="shared" si="13"/>
         <v>10.47</v>
       </c>
       <c r="F80" s="7">
-        <f>E80*B80</f>
+        <f t="shared" si="14"/>
         <v>219.87</v>
       </c>
       <c r="G80" s="7"/>
@@ -3427,15 +3404,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>149.6</v>
       </c>
       <c r="E81" s="7">
-        <f>C81*3</f>
+        <f t="shared" si="13"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F81" s="7">
-        <f>E81*B81</f>
+        <f t="shared" si="14"/>
         <v>448.79999999999995</v>
       </c>
       <c r="G81" s="7"/>
@@ -3452,15 +3429,15 @@
         <v>1.87</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>140.25</v>
       </c>
       <c r="E82" s="7">
-        <f>C82*3</f>
+        <f t="shared" si="13"/>
         <v>5.61</v>
       </c>
       <c r="F82" s="7">
-        <f>E82*B82</f>
+        <f t="shared" si="14"/>
         <v>420.75</v>
       </c>
       <c r="G82" s="7"/>
@@ -3477,15 +3454,15 @@
         <v>2.84</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>210.16</v>
       </c>
       <c r="E83" s="7">
-        <f>C83*3</f>
+        <f t="shared" si="13"/>
         <v>8.52</v>
       </c>
       <c r="F83" s="7">
-        <f>E83*B83</f>
+        <f t="shared" si="14"/>
         <v>630.48</v>
       </c>
       <c r="G83" s="7"/>
@@ -3502,15 +3479,15 @@
         <v>1.77</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>79.650000000000006</v>
       </c>
       <c r="E84" s="7">
-        <f>C84*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F84" s="7">
-        <f>E84*B84</f>
+        <f t="shared" si="14"/>
         <v>238.95000000000002</v>
       </c>
       <c r="G84" s="7"/>
@@ -3527,15 +3504,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>61.040000000000006</v>
       </c>
       <c r="E85" s="7">
-        <f>C85*3</f>
+        <f t="shared" si="13"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F85" s="7">
-        <f>E85*B85</f>
+        <f t="shared" si="14"/>
         <v>183.12000000000003</v>
       </c>
       <c r="G85" s="7"/>
@@ -3552,15 +3529,15 @@
         <v>1.77</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>253.11</v>
       </c>
       <c r="E86" s="7">
-        <f>C86*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F86" s="7">
-        <f>E86*B86</f>
+        <f t="shared" si="14"/>
         <v>759.33</v>
       </c>
       <c r="G86" s="7"/>
@@ -3577,15 +3554,15 @@
         <v>3.15</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>85.05</v>
       </c>
       <c r="E87" s="7">
-        <f>C87*3</f>
+        <f t="shared" si="13"/>
         <v>9.4499999999999993</v>
       </c>
       <c r="F87" s="7">
-        <f>E87*B87</f>
+        <f t="shared" si="14"/>
         <v>255.14999999999998</v>
       </c>
       <c r="G87" s="7"/>
@@ -3602,15 +3579,15 @@
         <v>1.77</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>235.41</v>
       </c>
       <c r="E88" s="7">
-        <f>C88*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F88" s="7">
-        <f>E88*B88</f>
+        <f t="shared" si="14"/>
         <v>706.23</v>
       </c>
       <c r="G88" s="7"/>
@@ -3627,15 +3604,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>239.8</v>
       </c>
       <c r="E89" s="7">
-        <f>C89*3</f>
+        <f t="shared" si="13"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F89" s="7">
-        <f>E89*B89</f>
+        <f t="shared" si="14"/>
         <v>719.40000000000009</v>
       </c>
       <c r="G89" s="7"/>
@@ -3652,15 +3629,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>121.55</v>
       </c>
       <c r="E90" s="7">
-        <f>C90*3</f>
+        <f t="shared" si="13"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F90" s="7">
-        <f>E90*B90</f>
+        <f t="shared" si="14"/>
         <v>364.65</v>
       </c>
       <c r="G90" s="7"/>
@@ -3677,15 +3654,15 @@
         <v>1.87</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>61.71</v>
       </c>
       <c r="E91" s="7">
-        <f>C91*3</f>
+        <f t="shared" si="13"/>
         <v>5.61</v>
       </c>
       <c r="F91" s="7">
-        <f>E91*B91</f>
+        <f t="shared" si="14"/>
         <v>185.13000000000002</v>
       </c>
       <c r="G91" s="7"/>
@@ -3702,15 +3679,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>176.58</v>
       </c>
       <c r="E92" s="7">
-        <f>C92*3</f>
+        <f t="shared" si="13"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F92" s="7">
-        <f>E92*B92</f>
+        <f t="shared" si="14"/>
         <v>529.74000000000012</v>
       </c>
       <c r="G92" s="7"/>
@@ -3727,15 +3704,15 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>136.29</v>
       </c>
       <c r="E93" s="7">
-        <f>C93*3</f>
+        <f t="shared" si="13"/>
         <v>5.31</v>
       </c>
       <c r="F93" s="7">
-        <f>E93*B93</f>
+        <f t="shared" si="14"/>
         <v>408.86999999999995</v>
       </c>
       <c r="G93" s="7"/>
@@ -3752,15 +3729,15 @@
         <v>3.49</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>132.62</v>
       </c>
       <c r="E94" s="7">
-        <f>C94*3</f>
+        <f t="shared" si="13"/>
         <v>10.47</v>
       </c>
       <c r="F94" s="7">
-        <f>E94*B94</f>
+        <f t="shared" si="14"/>
         <v>397.86</v>
       </c>
       <c r="G94" s="7"/>
@@ -3777,15 +3754,15 @@
         <v>1.77</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>70.8</v>
       </c>
       <c r="E95" s="7">
-        <f>C95*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F95" s="7">
-        <f>E95*B95</f>
+        <f t="shared" si="14"/>
         <v>212.40000000000003</v>
       </c>
       <c r="G95" s="7"/>
@@ -3802,15 +3779,15 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>191.52</v>
       </c>
       <c r="E96" s="7">
-        <f>C96*3</f>
+        <f t="shared" si="13"/>
         <v>5.0400000000000009</v>
       </c>
       <c r="F96" s="7">
-        <f>E96*B96</f>
+        <f t="shared" si="14"/>
         <v>574.56000000000006</v>
       </c>
       <c r="G96" s="7"/>
@@ -3827,15 +3804,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>488.32000000000005</v>
       </c>
       <c r="E97" s="7">
-        <f>C97*3</f>
+        <f t="shared" si="13"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F97" s="7">
-        <f>E97*B97</f>
+        <f t="shared" si="14"/>
         <v>1464.9600000000003</v>
       </c>
       <c r="G97" s="7"/>
@@ -3852,15 +3829,15 @@
         <v>1.77</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>249.57</v>
       </c>
       <c r="E98" s="7">
-        <f>C98*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F98" s="7">
-        <f>E98*B98</f>
+        <f t="shared" si="14"/>
         <v>748.71</v>
       </c>
       <c r="G98" s="7"/>
@@ -3877,15 +3854,15 @@
         <v>3.49</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>111.68</v>
       </c>
       <c r="E99" s="7">
-        <f>C99*3</f>
+        <f t="shared" si="13"/>
         <v>10.47</v>
       </c>
       <c r="F99" s="7">
-        <f>E99*B99</f>
+        <f t="shared" si="14"/>
         <v>335.04</v>
       </c>
       <c r="G99" s="7"/>
@@ -3902,15 +3879,15 @@
         <v>1.77</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35.4</v>
       </c>
       <c r="E100" s="7">
-        <f>C100*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F100" s="7">
-        <f>E100*B100</f>
+        <f t="shared" si="14"/>
         <v>106.20000000000002</v>
       </c>
       <c r="G100" s="7"/>
@@ -3927,15 +3904,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>87.2</v>
       </c>
       <c r="E101" s="7">
-        <f>C101*3</f>
+        <f t="shared" si="13"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F101" s="7">
-        <f>E101*B101</f>
+        <f t="shared" si="14"/>
         <v>261.60000000000002</v>
       </c>
       <c r="G101" s="7"/>
@@ -3952,15 +3929,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>91.63</v>
       </c>
       <c r="E102" s="7">
-        <f>C102*3</f>
+        <f t="shared" si="13"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F102" s="7">
-        <f>E102*B102</f>
+        <f t="shared" si="14"/>
         <v>274.89</v>
       </c>
       <c r="G102" s="7"/>
@@ -3977,15 +3954,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>160.54</v>
       </c>
       <c r="E103" s="7">
-        <f>C103*3</f>
+        <f t="shared" si="13"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F103" s="7">
-        <f>E103*B103</f>
+        <f t="shared" si="14"/>
         <v>481.61999999999995</v>
       </c>
       <c r="G103" s="7"/>
@@ -4002,15 +3979,15 @@
         <v>1.77</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>69.03</v>
       </c>
       <c r="E104" s="7">
-        <f>C104*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F104" s="7">
-        <f>E104*B104</f>
+        <f t="shared" si="14"/>
         <v>207.09000000000003</v>
       </c>
       <c r="G104" s="7"/>
@@ -4027,15 +4004,15 @@
         <v>1.68</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>104.16</v>
       </c>
       <c r="E105" s="7">
-        <f>C105*3</f>
+        <f t="shared" si="13"/>
         <v>5.04</v>
       </c>
       <c r="F105" s="7">
-        <f>E105*B105</f>
+        <f t="shared" si="14"/>
         <v>312.48</v>
       </c>
       <c r="G105" s="7"/>
@@ -4052,15 +4029,15 @@
         <v>1.77</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>159.30000000000001</v>
       </c>
       <c r="E106" s="7">
-        <f>C106*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F106" s="7">
-        <f>E106*B106</f>
+        <f t="shared" si="14"/>
         <v>477.90000000000003</v>
       </c>
       <c r="G106" s="7"/>
@@ -4077,15 +4054,15 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>224.53999999999996</v>
       </c>
       <c r="E107" s="7">
-        <f>C107*3</f>
+        <f t="shared" si="13"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="F107" s="7">
-        <f>E107*B107</f>
+        <f t="shared" si="14"/>
         <v>673.61999999999989</v>
       </c>
       <c r="G107" s="7"/>
@@ -4102,15 +4079,15 @@
         <v>2.84</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>90.88</v>
       </c>
       <c r="E108" s="7">
-        <f>C108*3</f>
+        <f t="shared" si="13"/>
         <v>8.52</v>
       </c>
       <c r="F108" s="7">
-        <f>E108*B108</f>
+        <f t="shared" si="14"/>
         <v>272.64</v>
       </c>
       <c r="G108" s="7"/>
@@ -4127,15 +4104,15 @@
         <v>1.87</v>
       </c>
       <c r="D109" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>123.42</v>
       </c>
       <c r="E109" s="7">
-        <f>C109*3</f>
+        <f t="shared" si="13"/>
         <v>5.61</v>
       </c>
       <c r="F109" s="7">
-        <f>E109*B109</f>
+        <f t="shared" si="14"/>
         <v>370.26000000000005</v>
       </c>
       <c r="G109" s="7"/>
@@ -4152,15 +4129,15 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D110" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>275.48</v>
       </c>
       <c r="E110" s="7">
-        <f>C110*3</f>
+        <f t="shared" si="13"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="F110" s="7">
-        <f>E110*B110</f>
+        <f t="shared" si="14"/>
         <v>826.44000000000017</v>
       </c>
       <c r="G110" s="7"/>
@@ -4177,15 +4154,15 @@
         <v>1.77</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>53.1</v>
       </c>
       <c r="E111" s="7">
-        <f>C111*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F111" s="7">
-        <f>E111*B111</f>
+        <f t="shared" si="14"/>
         <v>159.30000000000001</v>
       </c>
       <c r="G111" s="7"/>
@@ -4202,15 +4179,15 @@
         <v>1.68</v>
       </c>
       <c r="D112" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>48.72</v>
       </c>
       <c r="E112" s="7">
-        <f>C112*3</f>
+        <f t="shared" si="13"/>
         <v>5.04</v>
       </c>
       <c r="F112" s="7">
-        <f>E112*B112</f>
+        <f t="shared" si="14"/>
         <v>146.16</v>
       </c>
       <c r="G112" s="7"/>
@@ -4227,15 +4204,15 @@
         <v>1.77</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>162.84</v>
       </c>
       <c r="E113" s="7">
-        <f>C113*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F113" s="7">
-        <f>E113*B113</f>
+        <f t="shared" si="14"/>
         <v>488.52000000000004</v>
       </c>
       <c r="G113" s="7"/>
@@ -4252,15 +4229,15 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D114" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>303.02</v>
       </c>
       <c r="E114" s="7">
-        <f>C114*3</f>
+        <f t="shared" si="13"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="F114" s="7">
-        <f>E114*B114</f>
+        <f t="shared" si="14"/>
         <v>909.05999999999983</v>
       </c>
       <c r="G114" s="7"/>
@@ -4277,15 +4254,15 @@
         <v>2.84</v>
       </c>
       <c r="D115" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>82.36</v>
       </c>
       <c r="E115" s="7">
-        <f>C115*3</f>
+        <f t="shared" si="13"/>
         <v>8.52</v>
       </c>
       <c r="F115" s="7">
-        <f>E115*B115</f>
+        <f t="shared" si="14"/>
         <v>247.07999999999998</v>
       </c>
       <c r="G115" s="7"/>
@@ -4302,15 +4279,15 @@
         <v>2.27</v>
       </c>
       <c r="D116" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>68.099999999999994</v>
       </c>
       <c r="E116" s="7">
-        <f>C116*3</f>
+        <f t="shared" si="13"/>
         <v>6.8100000000000005</v>
       </c>
       <c r="F116" s="7">
-        <f>E116*B116</f>
+        <f t="shared" si="14"/>
         <v>204.3</v>
       </c>
       <c r="G116" s="7"/>
@@ -4327,15 +4304,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D117" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>67.319999999999993</v>
       </c>
       <c r="E117" s="7">
-        <f>C117*3</f>
+        <f t="shared" si="13"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F117" s="7">
-        <f>E117*B117</f>
+        <f t="shared" si="14"/>
         <v>201.95999999999998</v>
       </c>
       <c r="G117" s="7"/>
@@ -4352,15 +4329,15 @@
         <v>3.49</v>
       </c>
       <c r="D118" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>143.09</v>
       </c>
       <c r="E118" s="7">
-        <f>C118*3</f>
+        <f t="shared" si="13"/>
         <v>10.47</v>
       </c>
       <c r="F118" s="7">
-        <f>E118*B118</f>
+        <f t="shared" si="14"/>
         <v>429.27000000000004</v>
       </c>
       <c r="G118" s="7"/>
@@ -4377,15 +4354,15 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D119" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>77.88</v>
       </c>
       <c r="E119" s="7">
-        <f>C119*3</f>
+        <f t="shared" si="13"/>
         <v>5.31</v>
       </c>
       <c r="F119" s="7">
-        <f>E119*B119</f>
+        <f t="shared" si="14"/>
         <v>233.64</v>
       </c>
       <c r="G119" s="7"/>
@@ -4402,15 +4379,15 @@
         <v>1.68</v>
       </c>
       <c r="D120" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>48.72</v>
       </c>
       <c r="E120" s="7">
-        <f>C120*3</f>
+        <f t="shared" si="13"/>
         <v>5.04</v>
       </c>
       <c r="F120" s="7">
-        <f>E120*B120</f>
+        <f t="shared" si="14"/>
         <v>146.16</v>
       </c>
       <c r="G120" s="7"/>
@@ -4427,15 +4404,15 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D121" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>516.66</v>
       </c>
       <c r="E121" s="7">
-        <f>C121*3</f>
+        <f t="shared" si="13"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="F121" s="7">
-        <f>E121*B121</f>
+        <f t="shared" si="14"/>
         <v>1549.9799999999998</v>
       </c>
       <c r="G121" s="7"/>
@@ -4452,15 +4429,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D122" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>121.55</v>
       </c>
       <c r="E122" s="7">
-        <f>C122*3</f>
+        <f t="shared" si="13"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F122" s="7">
-        <f>E122*B122</f>
+        <f t="shared" si="14"/>
         <v>364.65</v>
       </c>
       <c r="G122" s="7"/>
@@ -4477,15 +4454,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D123" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>180.94000000000003</v>
       </c>
       <c r="E123" s="7">
-        <f>C123*3</f>
+        <f t="shared" si="13"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F123" s="7">
-        <f>E123*B123</f>
+        <f t="shared" si="14"/>
         <v>542.82000000000005</v>
       </c>
       <c r="G123" s="7"/>
@@ -4502,15 +4479,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D124" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>69.760000000000005</v>
       </c>
       <c r="E124" s="7">
-        <f>C124*3</f>
+        <f t="shared" si="13"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F124" s="7">
-        <f>E124*B124</f>
+        <f t="shared" si="14"/>
         <v>209.28000000000003</v>
       </c>
       <c r="G124" s="7"/>
@@ -4527,15 +4504,15 @@
         <v>1.77</v>
       </c>
       <c r="D125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>111.51</v>
       </c>
       <c r="E125" s="7">
-        <f>C125*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F125" s="7">
-        <f>E125*B125</f>
+        <f t="shared" si="14"/>
         <v>334.53000000000003</v>
       </c>
       <c r="G125" s="7"/>
@@ -4552,15 +4529,15 @@
         <v>3.15</v>
       </c>
       <c r="D126" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>91.35</v>
       </c>
       <c r="E126" s="7">
-        <f>C126*3</f>
+        <f t="shared" si="13"/>
         <v>9.4499999999999993</v>
       </c>
       <c r="F126" s="7">
-        <f>E126*B126</f>
+        <f t="shared" si="14"/>
         <v>274.04999999999995</v>
       </c>
       <c r="G126" s="7"/>
@@ -4577,15 +4554,15 @@
         <v>1.87</v>
       </c>
       <c r="D127" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>143.99</v>
       </c>
       <c r="E127" s="7">
-        <f>C127*3</f>
+        <f t="shared" si="13"/>
         <v>5.61</v>
       </c>
       <c r="F127" s="7">
-        <f>E127*B127</f>
+        <f t="shared" si="14"/>
         <v>431.97</v>
       </c>
       <c r="G127" s="7"/>
@@ -4602,15 +4579,15 @@
         <v>2.84</v>
       </c>
       <c r="D128" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>227.2</v>
       </c>
       <c r="E128" s="7">
-        <f>C128*3</f>
+        <f t="shared" si="13"/>
         <v>8.52</v>
       </c>
       <c r="F128" s="7">
-        <f>E128*B128</f>
+        <f t="shared" si="14"/>
         <v>681.59999999999991</v>
       </c>
       <c r="G128" s="7"/>
@@ -4627,15 +4604,15 @@
         <v>1.77</v>
       </c>
       <c r="D129" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>180.54</v>
       </c>
       <c r="E129" s="7">
-        <f>C129*3</f>
+        <f t="shared" si="13"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F129" s="7">
-        <f>E129*B129</f>
+        <f t="shared" si="14"/>
         <v>541.62</v>
       </c>
       <c r="G129" s="7"/>
@@ -4652,15 +4629,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D130" s="7">
-        <f t="shared" ref="D130:D193" si="5">C130*B130</f>
+        <f t="shared" ref="D130:D193" si="15">C130*B130</f>
         <v>108.19</v>
       </c>
       <c r="E130" s="7">
-        <f>C130*3</f>
+        <f t="shared" ref="E130:E193" si="16">C130*3</f>
         <v>10.469999999999999</v>
       </c>
       <c r="F130" s="7">
-        <f>E130*B130</f>
+        <f t="shared" ref="F130:F193" si="17">E130*B130</f>
         <v>324.56999999999994</v>
       </c>
       <c r="G130" s="7"/>
@@ -4677,15 +4654,15 @@
         <v>1.77</v>
       </c>
       <c r="D131" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>99.12</v>
       </c>
       <c r="E131" s="7">
-        <f>C131*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F131" s="7">
-        <f>E131*B131</f>
+        <f t="shared" si="17"/>
         <v>297.36</v>
       </c>
       <c r="G131" s="7"/>
@@ -4702,15 +4679,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D132" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>113.36000000000001</v>
       </c>
       <c r="E132" s="7">
-        <f>C132*3</f>
+        <f t="shared" si="16"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F132" s="7">
-        <f>E132*B132</f>
+        <f t="shared" si="17"/>
         <v>340.08000000000004</v>
       </c>
       <c r="G132" s="7"/>
@@ -4727,15 +4704,15 @@
         <v>1.77</v>
       </c>
       <c r="D133" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>90.27</v>
       </c>
       <c r="E133" s="7">
-        <f>C133*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F133" s="7">
-        <f>E133*B133</f>
+        <f t="shared" si="17"/>
         <v>270.81</v>
       </c>
       <c r="G133" s="7"/>
@@ -4752,15 +4729,15 @@
         <v>1.68</v>
       </c>
       <c r="D134" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>40.32</v>
       </c>
       <c r="E134" s="7">
-        <f>C134*3</f>
+        <f t="shared" si="16"/>
         <v>5.04</v>
       </c>
       <c r="F134" s="7">
-        <f>E134*B134</f>
+        <f t="shared" si="17"/>
         <v>120.96000000000001</v>
       </c>
       <c r="G134" s="7"/>
@@ -4777,15 +4754,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D135" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>126.44000000000001</v>
       </c>
       <c r="E135" s="7">
-        <f>C135*3</f>
+        <f t="shared" si="16"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F135" s="7">
-        <f>E135*B135</f>
+        <f t="shared" si="17"/>
         <v>379.32000000000005</v>
       </c>
       <c r="G135" s="7"/>
@@ -4802,15 +4779,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D136" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>63.58</v>
       </c>
       <c r="E136" s="7">
-        <f>C136*3</f>
+        <f t="shared" si="16"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F136" s="7">
-        <f>E136*B136</f>
+        <f t="shared" si="17"/>
         <v>190.73999999999998</v>
       </c>
       <c r="G136" s="7"/>
@@ -4827,15 +4804,15 @@
         <v>1.77</v>
       </c>
       <c r="D137" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>60.18</v>
       </c>
       <c r="E137" s="7">
-        <f>C137*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F137" s="7">
-        <f>E137*B137</f>
+        <f t="shared" si="17"/>
         <v>180.54000000000002</v>
       </c>
       <c r="G137" s="7"/>
@@ -4852,15 +4829,15 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D138" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>35.28</v>
       </c>
       <c r="E138" s="7">
-        <f>C138*3</f>
+        <f t="shared" si="16"/>
         <v>5.0400000000000009</v>
       </c>
       <c r="F138" s="7">
-        <f>E138*B138</f>
+        <f t="shared" si="17"/>
         <v>105.84000000000002</v>
       </c>
       <c r="G138" s="7"/>
@@ -4877,15 +4854,15 @@
         <v>2.84</v>
       </c>
       <c r="D139" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>82.36</v>
       </c>
       <c r="E139" s="7">
-        <f>C139*3</f>
+        <f t="shared" si="16"/>
         <v>8.52</v>
       </c>
       <c r="F139" s="7">
-        <f>E139*B139</f>
+        <f t="shared" si="17"/>
         <v>247.07999999999998</v>
       </c>
       <c r="G139" s="7"/>
@@ -4902,15 +4879,15 @@
         <v>1.77</v>
       </c>
       <c r="D140" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>120.36</v>
       </c>
       <c r="E140" s="7">
-        <f>C140*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F140" s="7">
-        <f>E140*B140</f>
+        <f t="shared" si="17"/>
         <v>361.08000000000004</v>
       </c>
       <c r="G140" s="7"/>
@@ -4927,15 +4904,15 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D141" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>97.65</v>
       </c>
       <c r="E141" s="7">
-        <f>C141*3</f>
+        <f t="shared" si="16"/>
         <v>9.4500000000000011</v>
       </c>
       <c r="F141" s="7">
-        <f>E141*B141</f>
+        <f t="shared" si="17"/>
         <v>292.95000000000005</v>
       </c>
       <c r="G141" s="7"/>
@@ -4952,15 +4929,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D142" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>65.400000000000006</v>
       </c>
       <c r="E142" s="7">
-        <f>C142*3</f>
+        <f t="shared" si="16"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F142" s="7">
-        <f>E142*B142</f>
+        <f t="shared" si="17"/>
         <v>196.20000000000002</v>
       </c>
       <c r="G142" s="7"/>
@@ -4977,15 +4954,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D143" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>433.84</v>
       </c>
       <c r="E143" s="7">
-        <f>C143*3</f>
+        <f t="shared" si="16"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F143" s="7">
-        <f>E143*B143</f>
+        <f t="shared" si="17"/>
         <v>1301.52</v>
       </c>
       <c r="G143" s="7"/>
@@ -5002,15 +4979,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D144" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>127.16</v>
       </c>
       <c r="E144" s="7">
-        <f>C144*3</f>
+        <f t="shared" si="16"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F144" s="7">
-        <f>E144*B144</f>
+        <f t="shared" si="17"/>
         <v>381.47999999999996</v>
       </c>
       <c r="G144" s="7"/>
@@ -5027,15 +5004,15 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D145" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>275.48</v>
       </c>
       <c r="E145" s="7">
-        <f>C145*3</f>
+        <f t="shared" si="16"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="F145" s="7">
-        <f>E145*B145</f>
+        <f t="shared" si="17"/>
         <v>826.44000000000017</v>
       </c>
       <c r="G145" s="7"/>
@@ -5052,15 +5029,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D146" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>160.82</v>
       </c>
       <c r="E146" s="7">
-        <f>C146*3</f>
+        <f t="shared" si="16"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F146" s="7">
-        <f>E146*B146</f>
+        <f t="shared" si="17"/>
         <v>482.45999999999992</v>
       </c>
       <c r="G146" s="7"/>
@@ -5077,15 +5054,15 @@
         <v>1.68</v>
       </c>
       <c r="D147" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>68.88</v>
       </c>
       <c r="E147" s="7">
-        <f>C147*3</f>
+        <f t="shared" si="16"/>
         <v>5.04</v>
       </c>
       <c r="F147" s="7">
-        <f>E147*B147</f>
+        <f t="shared" si="17"/>
         <v>206.64000000000001</v>
       </c>
       <c r="G147" s="7"/>
@@ -5102,15 +5079,15 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D148" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>164.61</v>
       </c>
       <c r="E148" s="7">
-        <f>C148*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F148" s="7">
-        <f>E148*B148</f>
+        <f t="shared" si="17"/>
         <v>493.83000000000004</v>
       </c>
       <c r="G148" s="7"/>
@@ -5127,15 +5104,15 @@
         <v>1.68</v>
       </c>
       <c r="D149" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>78.959999999999994</v>
       </c>
       <c r="E149" s="7">
-        <f>C149*3</f>
+        <f t="shared" si="16"/>
         <v>5.04</v>
       </c>
       <c r="F149" s="7">
-        <f>E149*B149</f>
+        <f t="shared" si="17"/>
         <v>236.88</v>
       </c>
       <c r="G149" s="7"/>
@@ -5152,15 +5129,15 @@
         <v>1.77</v>
       </c>
       <c r="D150" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>182.31</v>
       </c>
       <c r="E150" s="7">
-        <f>C150*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F150" s="7">
-        <f>E150*B150</f>
+        <f t="shared" si="17"/>
         <v>546.93000000000006</v>
       </c>
       <c r="G150" s="7"/>
@@ -5177,15 +5154,15 @@
         <v>1.68</v>
       </c>
       <c r="D151" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>55.44</v>
       </c>
       <c r="E151" s="7">
-        <f>C151*3</f>
+        <f t="shared" si="16"/>
         <v>5.04</v>
       </c>
       <c r="F151" s="7">
-        <f>E151*B151</f>
+        <f t="shared" si="17"/>
         <v>166.32</v>
       </c>
       <c r="G151" s="7"/>
@@ -5202,15 +5179,15 @@
         <v>1.87</v>
       </c>
       <c r="D152" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>106.59</v>
       </c>
       <c r="E152" s="7">
-        <f>C152*3</f>
+        <f t="shared" si="16"/>
         <v>5.61</v>
       </c>
       <c r="F152" s="7">
-        <f>E152*B152</f>
+        <f t="shared" si="17"/>
         <v>319.77000000000004</v>
       </c>
       <c r="G152" s="7"/>
@@ -5227,15 +5204,15 @@
         <v>2.84</v>
       </c>
       <c r="D153" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>184.6</v>
       </c>
       <c r="E153" s="7">
-        <f>C153*3</f>
+        <f t="shared" si="16"/>
         <v>8.52</v>
       </c>
       <c r="F153" s="7">
-        <f>E153*B153</f>
+        <f t="shared" si="17"/>
         <v>553.79999999999995</v>
       </c>
       <c r="G153" s="7"/>
@@ -5252,15 +5229,15 @@
         <v>1.77</v>
       </c>
       <c r="D154" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>208.86</v>
       </c>
       <c r="E154" s="7">
-        <f>C154*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F154" s="7">
-        <f>E154*B154</f>
+        <f t="shared" si="17"/>
         <v>626.58000000000004</v>
       </c>
       <c r="G154" s="7"/>
@@ -5277,15 +5254,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D155" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>78.48</v>
       </c>
       <c r="E155" s="7">
-        <f>C155*3</f>
+        <f t="shared" si="16"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F155" s="7">
-        <f>E155*B155</f>
+        <f t="shared" si="17"/>
         <v>235.44000000000003</v>
       </c>
       <c r="G155" s="7"/>
@@ -5302,15 +5279,15 @@
         <v>2.84</v>
       </c>
       <c r="D156" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>349.32</v>
       </c>
       <c r="E156" s="7">
-        <f>C156*3</f>
+        <f t="shared" si="16"/>
         <v>8.52</v>
       </c>
       <c r="F156" s="7">
-        <f>E156*B156</f>
+        <f t="shared" si="17"/>
         <v>1047.96</v>
       </c>
       <c r="G156" s="7"/>
@@ -5327,15 +5304,15 @@
         <v>1.77</v>
       </c>
       <c r="D157" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>159.30000000000001</v>
       </c>
       <c r="E157" s="7">
-        <f>C157*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F157" s="7">
-        <f>E157*B157</f>
+        <f t="shared" si="17"/>
         <v>477.90000000000003</v>
       </c>
       <c r="G157" s="7"/>
@@ -5352,15 +5329,15 @@
         <v>3.49</v>
       </c>
       <c r="D158" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E158" s="7">
-        <f>C158*3</f>
+        <f t="shared" si="16"/>
         <v>10.47</v>
       </c>
       <c r="F158" s="7">
-        <f>E158*B158</f>
+        <f t="shared" si="17"/>
         <v>219.87</v>
       </c>
       <c r="G158" s="7"/>
@@ -5377,15 +5354,15 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D159" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>84.96</v>
       </c>
       <c r="E159" s="7">
-        <f>C159*3</f>
+        <f t="shared" si="16"/>
         <v>5.31</v>
       </c>
       <c r="F159" s="7">
-        <f>E159*B159</f>
+        <f t="shared" si="17"/>
         <v>254.88</v>
       </c>
       <c r="G159" s="7"/>
@@ -5402,15 +5379,15 @@
         <v>1.68</v>
       </c>
       <c r="D160" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>40.32</v>
       </c>
       <c r="E160" s="7">
-        <f>C160*3</f>
+        <f t="shared" si="16"/>
         <v>5.04</v>
       </c>
       <c r="F160" s="7">
-        <f>E160*B160</f>
+        <f t="shared" si="17"/>
         <v>120.96000000000001</v>
       </c>
       <c r="G160" s="7"/>
@@ -5427,15 +5404,15 @@
         <v>1.87</v>
       </c>
       <c r="D161" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>125.29</v>
       </c>
       <c r="E161" s="7">
-        <f>C161*3</f>
+        <f t="shared" si="16"/>
         <v>5.61</v>
       </c>
       <c r="F161" s="7">
-        <f>E161*B161</f>
+        <f t="shared" si="17"/>
         <v>375.87</v>
       </c>
       <c r="G161" s="7"/>
@@ -5452,15 +5429,15 @@
         <v>1.87</v>
       </c>
       <c r="D162" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>50.49</v>
       </c>
       <c r="E162" s="7">
-        <f>C162*3</f>
+        <f t="shared" si="16"/>
         <v>5.61</v>
       </c>
       <c r="F162" s="7">
-        <f>E162*B162</f>
+        <f t="shared" si="17"/>
         <v>151.47</v>
       </c>
       <c r="G162" s="7"/>
@@ -5477,15 +5454,15 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D163" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>366.36</v>
       </c>
       <c r="E163" s="7">
-        <f>C163*3</f>
+        <f t="shared" si="16"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="F163" s="7">
-        <f>E163*B163</f>
+        <f t="shared" si="17"/>
         <v>1099.0800000000002</v>
       </c>
       <c r="G163" s="7"/>
@@ -5502,15 +5479,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D164" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>167.86</v>
       </c>
       <c r="E164" s="7">
-        <f>C164*3</f>
+        <f t="shared" si="16"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F164" s="7">
-        <f>E164*B164</f>
+        <f t="shared" si="17"/>
         <v>503.5800000000001</v>
       </c>
       <c r="G164" s="7"/>
@@ -5527,15 +5504,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D165" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>108.46</v>
       </c>
       <c r="E165" s="7">
-        <f>C165*3</f>
+        <f t="shared" si="16"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F165" s="7">
-        <f>E165*B165</f>
+        <f t="shared" si="17"/>
         <v>325.38</v>
       </c>
       <c r="G165" s="7"/>
@@ -5552,15 +5529,15 @@
         <v>1.87</v>
       </c>
       <c r="D166" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>87.89</v>
       </c>
       <c r="E166" s="7">
-        <f>C166*3</f>
+        <f t="shared" si="16"/>
         <v>5.61</v>
       </c>
       <c r="F166" s="7">
-        <f>E166*B166</f>
+        <f t="shared" si="17"/>
         <v>263.67</v>
       </c>
       <c r="G166" s="7"/>
@@ -5577,15 +5554,15 @@
         <v>2.84</v>
       </c>
       <c r="D167" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>93.72</v>
       </c>
       <c r="E167" s="7">
-        <f>C167*3</f>
+        <f t="shared" si="16"/>
         <v>8.52</v>
       </c>
       <c r="F167" s="7">
-        <f>E167*B167</f>
+        <f t="shared" si="17"/>
         <v>281.15999999999997</v>
       </c>
       <c r="G167" s="7"/>
@@ -5602,15 +5579,15 @@
         <v>1.87</v>
       </c>
       <c r="D168" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>153.34</v>
       </c>
       <c r="E168" s="7">
-        <f>C168*3</f>
+        <f t="shared" si="16"/>
         <v>5.61</v>
       </c>
       <c r="F168" s="7">
-        <f>E168*B168</f>
+        <f t="shared" si="17"/>
         <v>460.02000000000004</v>
       </c>
       <c r="G168" s="7"/>
@@ -5627,15 +5604,15 @@
         <v>1.77</v>
       </c>
       <c r="D169" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>102.66</v>
       </c>
       <c r="E169" s="7">
-        <f>C169*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F169" s="7">
-        <f>E169*B169</f>
+        <f t="shared" si="17"/>
         <v>307.98</v>
       </c>
       <c r="G169" s="7"/>
@@ -5652,15 +5629,15 @@
         <v>3.15</v>
       </c>
       <c r="D170" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>94.5</v>
       </c>
       <c r="E170" s="7">
-        <f>C170*3</f>
+        <f t="shared" si="16"/>
         <v>9.4499999999999993</v>
       </c>
       <c r="F170" s="7">
-        <f>E170*B170</f>
+        <f t="shared" si="17"/>
         <v>283.5</v>
       </c>
       <c r="G170" s="7"/>
@@ -5677,15 +5654,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D171" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>80.41</v>
       </c>
       <c r="E171" s="7">
-        <f>C171*3</f>
+        <f t="shared" si="16"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F171" s="7">
-        <f>E171*B171</f>
+        <f t="shared" si="17"/>
         <v>241.22999999999996</v>
       </c>
       <c r="G171" s="7"/>
@@ -5702,15 +5679,15 @@
         <v>1.77</v>
       </c>
       <c r="D172" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>148.68</v>
       </c>
       <c r="E172" s="7">
-        <f>C172*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F172" s="7">
-        <f>E172*B172</f>
+        <f t="shared" si="17"/>
         <v>446.04</v>
       </c>
       <c r="G172" s="7"/>
@@ -5727,15 +5704,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D173" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>78.48</v>
       </c>
       <c r="E173" s="7">
-        <f>C173*3</f>
+        <f t="shared" si="16"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F173" s="7">
-        <f>E173*B173</f>
+        <f t="shared" si="17"/>
         <v>235.44000000000003</v>
       </c>
       <c r="G173" s="7"/>
@@ -5752,15 +5729,15 @@
         <v>2.84</v>
       </c>
       <c r="D174" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>124.96</v>
       </c>
       <c r="E174" s="7">
-        <f>C174*3</f>
+        <f t="shared" si="16"/>
         <v>8.52</v>
       </c>
       <c r="F174" s="7">
-        <f>E174*B174</f>
+        <f t="shared" si="17"/>
         <v>374.88</v>
       </c>
       <c r="G174" s="7"/>
@@ -5777,15 +5754,15 @@
         <v>1.87</v>
       </c>
       <c r="D175" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>50.49</v>
       </c>
       <c r="E175" s="7">
-        <f>C175*3</f>
+        <f t="shared" si="16"/>
         <v>5.61</v>
       </c>
       <c r="F175" s="7">
-        <f>E175*B175</f>
+        <f t="shared" si="17"/>
         <v>151.47</v>
       </c>
       <c r="G175" s="7"/>
@@ -5802,15 +5779,15 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D176" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>340.8</v>
       </c>
       <c r="E176" s="7">
-        <f>C176*3</f>
+        <f t="shared" si="16"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="F176" s="7">
-        <f>E176*B176</f>
+        <f t="shared" si="17"/>
         <v>1022.4000000000002</v>
       </c>
       <c r="G176" s="7"/>
@@ -5827,15 +5804,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D177" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>90.74</v>
       </c>
       <c r="E177" s="7">
-        <f>C177*3</f>
+        <f t="shared" si="16"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F177" s="7">
-        <f>E177*B177</f>
+        <f t="shared" si="17"/>
         <v>272.21999999999997</v>
       </c>
       <c r="G177" s="7"/>
@@ -5852,15 +5829,15 @@
         <v>1.77</v>
       </c>
       <c r="D178" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>129.21</v>
       </c>
       <c r="E178" s="7">
-        <f>C178*3</f>
+        <f t="shared" si="16"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F178" s="7">
-        <f>E178*B178</f>
+        <f t="shared" si="17"/>
         <v>387.63000000000005</v>
       </c>
       <c r="G178" s="7"/>
@@ -5877,15 +5854,15 @@
         <v>1.87</v>
       </c>
       <c r="D179" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>71.06</v>
       </c>
       <c r="E179" s="7">
-        <f>C179*3</f>
+        <f t="shared" si="16"/>
         <v>5.61</v>
       </c>
       <c r="F179" s="7">
-        <f>E179*B179</f>
+        <f t="shared" si="17"/>
         <v>213.18</v>
       </c>
       <c r="G179" s="7"/>
@@ -5902,15 +5879,15 @@
         <v>2.84</v>
       </c>
       <c r="D180" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>113.6</v>
       </c>
       <c r="E180" s="7">
-        <f>C180*3</f>
+        <f t="shared" si="16"/>
         <v>8.52</v>
       </c>
       <c r="F180" s="7">
-        <f>E180*B180</f>
+        <f t="shared" si="17"/>
         <v>340.79999999999995</v>
       </c>
       <c r="G180" s="7"/>
@@ -5927,15 +5904,15 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D181" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>72.569999999999993</v>
       </c>
       <c r="E181" s="7">
-        <f>C181*3</f>
+        <f t="shared" si="16"/>
         <v>5.31</v>
       </c>
       <c r="F181" s="7">
-        <f>E181*B181</f>
+        <f t="shared" si="17"/>
         <v>217.70999999999998</v>
       </c>
       <c r="G181" s="7"/>
@@ -5952,15 +5929,15 @@
         <v>2.27</v>
       </c>
       <c r="D182" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>61.29</v>
       </c>
       <c r="E182" s="7">
-        <f>C182*3</f>
+        <f t="shared" si="16"/>
         <v>6.8100000000000005</v>
       </c>
       <c r="F182" s="7">
-        <f>E182*B182</f>
+        <f t="shared" si="17"/>
         <v>183.87</v>
       </c>
       <c r="G182" s="7"/>
@@ -5977,15 +5954,15 @@
         <v>1.87</v>
       </c>
       <c r="D183" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>71.06</v>
       </c>
       <c r="E183" s="7">
-        <f>C183*3</f>
+        <f t="shared" si="16"/>
         <v>5.61</v>
       </c>
       <c r="F183" s="7">
-        <f>E183*B183</f>
+        <f t="shared" si="17"/>
         <v>213.18</v>
       </c>
       <c r="G183" s="7"/>
@@ -6002,15 +5979,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D184" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>118.66</v>
       </c>
       <c r="E184" s="7">
-        <f>C184*3</f>
+        <f t="shared" si="16"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F184" s="7">
-        <f>E184*B184</f>
+        <f t="shared" si="17"/>
         <v>355.97999999999996</v>
       </c>
       <c r="G184" s="7"/>
@@ -6027,15 +6004,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D185" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>121.55</v>
       </c>
       <c r="E185" s="7">
-        <f>C185*3</f>
+        <f t="shared" si="16"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F185" s="7">
-        <f>E185*B185</f>
+        <f t="shared" si="17"/>
         <v>364.65</v>
       </c>
       <c r="G185" s="7"/>
@@ -6052,15 +6029,15 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D186" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>170.4</v>
       </c>
       <c r="E186" s="7">
-        <f>C186*3</f>
+        <f t="shared" si="16"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="F186" s="7">
-        <f>E186*B186</f>
+        <f t="shared" si="17"/>
         <v>511.2000000000001</v>
       </c>
       <c r="G186" s="7"/>
@@ -6077,15 +6054,15 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D187" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>80.66</v>
       </c>
       <c r="E187" s="7">
-        <f>C187*3</f>
+        <f t="shared" si="16"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="F187" s="7">
-        <f>E187*B187</f>
+        <f t="shared" si="17"/>
         <v>241.97999999999996</v>
       </c>
       <c r="G187" s="7"/>
@@ -6102,15 +6079,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D188" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>74.8</v>
       </c>
       <c r="E188" s="7">
-        <f>C188*3</f>
+        <f t="shared" si="16"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F188" s="7">
-        <f>E188*B188</f>
+        <f t="shared" si="17"/>
         <v>224.39999999999998</v>
       </c>
       <c r="G188" s="7"/>
@@ -6127,15 +6104,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D189" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>48.62</v>
       </c>
       <c r="E189" s="7">
-        <f>C189*3</f>
+        <f t="shared" si="16"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F189" s="7">
-        <f>E189*B189</f>
+        <f t="shared" si="17"/>
         <v>145.85999999999999</v>
       </c>
       <c r="G189" s="7"/>
@@ -6152,15 +6129,15 @@
         <v>2.27</v>
       </c>
       <c r="D190" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>49.94</v>
       </c>
       <c r="E190" s="7">
-        <f>C190*3</f>
+        <f t="shared" si="16"/>
         <v>6.8100000000000005</v>
       </c>
       <c r="F190" s="7">
-        <f>E190*B190</f>
+        <f t="shared" si="17"/>
         <v>149.82000000000002</v>
       </c>
       <c r="G190" s="7"/>
@@ -6177,15 +6154,15 @@
         <v>1.87</v>
       </c>
       <c r="D191" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>59.84</v>
       </c>
       <c r="E191" s="7">
-        <f>C191*3</f>
+        <f t="shared" si="16"/>
         <v>5.61</v>
       </c>
       <c r="F191" s="7">
-        <f>E191*B191</f>
+        <f t="shared" si="17"/>
         <v>179.52</v>
       </c>
       <c r="G191" s="7"/>
@@ -6202,15 +6179,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D192" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>80.27</v>
       </c>
       <c r="E192" s="7">
-        <f>C192*3</f>
+        <f t="shared" si="16"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F192" s="7">
-        <f>E192*B192</f>
+        <f t="shared" si="17"/>
         <v>240.80999999999997</v>
       </c>
       <c r="G192" s="7"/>
@@ -6227,15 +6204,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D193" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>43.6</v>
       </c>
       <c r="E193" s="7">
-        <f>C193*3</f>
+        <f t="shared" si="16"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F193" s="7">
-        <f>E193*B193</f>
+        <f t="shared" si="17"/>
         <v>130.80000000000001</v>
       </c>
       <c r="G193" s="7"/>
@@ -6252,15 +6229,15 @@
         <v>1.87</v>
       </c>
       <c r="D194" s="7">
-        <f t="shared" ref="D194:D245" si="6">C194*B194</f>
+        <f t="shared" ref="D194:D245" si="18">C194*B194</f>
         <v>119.68</v>
       </c>
       <c r="E194" s="7">
-        <f>C194*3</f>
+        <f t="shared" ref="E194:E245" si="19">C194*3</f>
         <v>5.61</v>
       </c>
       <c r="F194" s="7">
-        <f>E194*B194</f>
+        <f t="shared" ref="F194:F257" si="20">E194*B194</f>
         <v>359.04</v>
       </c>
       <c r="G194" s="7"/>
@@ -6277,15 +6254,15 @@
         <v>1.77</v>
       </c>
       <c r="D195" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>125.67</v>
       </c>
       <c r="E195" s="7">
-        <f>C195*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F195" s="7">
-        <f>E195*B195</f>
+        <f t="shared" si="20"/>
         <v>377.01000000000005</v>
       </c>
       <c r="G195" s="7"/>
@@ -6302,15 +6279,15 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D196" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>196.2</v>
       </c>
       <c r="E196" s="7">
-        <f>C196*3</f>
+        <f t="shared" si="19"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="F196" s="7">
-        <f>E196*B196</f>
+        <f t="shared" si="20"/>
         <v>588.59999999999991</v>
       </c>
       <c r="G196" s="7"/>
@@ -6327,15 +6304,15 @@
         <v>2.84</v>
       </c>
       <c r="D197" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>107.91999999999999</v>
       </c>
       <c r="E197" s="7">
-        <f>C197*3</f>
+        <f t="shared" si="19"/>
         <v>8.52</v>
       </c>
       <c r="F197" s="7">
-        <f>E197*B197</f>
+        <f t="shared" si="20"/>
         <v>323.76</v>
       </c>
       <c r="G197" s="7"/>
@@ -6352,15 +6329,15 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D198" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>97.35</v>
       </c>
       <c r="E198" s="7">
-        <f>C198*3</f>
+        <f t="shared" si="19"/>
         <v>5.31</v>
       </c>
       <c r="F198" s="7">
-        <f>E198*B198</f>
+        <f t="shared" si="20"/>
         <v>292.04999999999995</v>
       </c>
       <c r="G198" s="7"/>
@@ -6377,15 +6354,15 @@
         <v>3.15</v>
       </c>
       <c r="D199" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>69.3</v>
       </c>
       <c r="E199" s="7">
-        <f>C199*3</f>
+        <f t="shared" si="19"/>
         <v>9.4499999999999993</v>
       </c>
       <c r="F199" s="7">
-        <f>E199*B199</f>
+        <f t="shared" si="20"/>
         <v>207.89999999999998</v>
       </c>
       <c r="G199" s="7"/>
@@ -6402,15 +6379,15 @@
         <v>1.77</v>
       </c>
       <c r="D200" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>60.18</v>
       </c>
       <c r="E200" s="7">
-        <f>C200*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F200" s="7">
-        <f>E200*B200</f>
+        <f t="shared" si="20"/>
         <v>180.54000000000002</v>
       </c>
       <c r="G200" s="7"/>
@@ -6427,15 +6404,15 @@
         <v>1.87</v>
       </c>
       <c r="D201" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>72.930000000000007</v>
       </c>
       <c r="E201" s="7">
-        <f>C201*3</f>
+        <f t="shared" si="19"/>
         <v>5.61</v>
       </c>
       <c r="F201" s="7">
-        <f>E201*B201</f>
+        <f t="shared" si="20"/>
         <v>218.79000000000002</v>
       </c>
       <c r="G201" s="7"/>
@@ -6452,15 +6429,15 @@
         <v>2.84</v>
       </c>
       <c r="D202" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>116.44</v>
       </c>
       <c r="E202" s="7">
-        <f>C202*3</f>
+        <f t="shared" si="19"/>
         <v>8.52</v>
       </c>
       <c r="F202" s="7">
-        <f>E202*B202</f>
+        <f t="shared" si="20"/>
         <v>349.32</v>
       </c>
       <c r="G202" s="7"/>
@@ -6477,15 +6454,15 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D203" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>72.569999999999993</v>
       </c>
       <c r="E203" s="7">
-        <f>C203*3</f>
+        <f t="shared" si="19"/>
         <v>5.31</v>
       </c>
       <c r="F203" s="7">
-        <f>E203*B203</f>
+        <f t="shared" si="20"/>
         <v>217.70999999999998</v>
       </c>
       <c r="G203" s="7"/>
@@ -6502,15 +6479,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D204" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>296.48</v>
       </c>
       <c r="E204" s="7">
-        <f>C204*3</f>
+        <f t="shared" si="19"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F204" s="7">
-        <f>E204*B204</f>
+        <f t="shared" si="20"/>
         <v>889.44000000000017</v>
       </c>
       <c r="G204" s="7"/>
@@ -6527,15 +6504,15 @@
         <v>1.77</v>
       </c>
       <c r="D205" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>44.25</v>
       </c>
       <c r="E205" s="7">
-        <f>C205*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F205" s="7">
-        <f>E205*B205</f>
+        <f t="shared" si="20"/>
         <v>132.75</v>
       </c>
       <c r="G205" s="7"/>
@@ -6552,15 +6529,15 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D206" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>81.900000000000006</v>
       </c>
       <c r="E206" s="7">
-        <f>C206*3</f>
+        <f t="shared" si="19"/>
         <v>9.4500000000000011</v>
       </c>
       <c r="F206" s="7">
-        <f>E206*B206</f>
+        <f t="shared" si="20"/>
         <v>245.70000000000002</v>
       </c>
       <c r="G206" s="7"/>
@@ -6577,15 +6554,15 @@
         <v>1.87</v>
       </c>
       <c r="D207" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>93.5</v>
       </c>
       <c r="E207" s="7">
-        <f>C207*3</f>
+        <f t="shared" si="19"/>
         <v>5.61</v>
       </c>
       <c r="F207" s="7">
-        <f>E207*B207</f>
+        <f t="shared" si="20"/>
         <v>280.5</v>
       </c>
       <c r="G207" s="7"/>
@@ -6602,15 +6579,15 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D208" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>224.36</v>
       </c>
       <c r="E208" s="7">
-        <f>C208*3</f>
+        <f t="shared" si="19"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="F208" s="7">
-        <f>E208*B208</f>
+        <f t="shared" si="20"/>
         <v>673.08000000000015</v>
       </c>
       <c r="G208" s="7"/>
@@ -6627,15 +6604,15 @@
         <v>1.77</v>
       </c>
       <c r="D209" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>53.1</v>
       </c>
       <c r="E209" s="7">
-        <f>C209*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F209" s="7">
-        <f>E209*B209</f>
+        <f t="shared" si="20"/>
         <v>159.30000000000001</v>
       </c>
       <c r="G209" s="7"/>
@@ -6652,15 +6629,15 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D210" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>33.6</v>
       </c>
       <c r="E210" s="7">
-        <f>C210*3</f>
+        <f t="shared" si="19"/>
         <v>5.0400000000000009</v>
       </c>
       <c r="F210" s="7">
-        <f>E210*B210</f>
+        <f t="shared" si="20"/>
         <v>100.80000000000001</v>
       </c>
       <c r="G210" s="7"/>
@@ -6677,15 +6654,15 @@
         <v>1.77</v>
       </c>
       <c r="D211" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>86.73</v>
       </c>
       <c r="E211" s="7">
-        <f>C211*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F211" s="7">
-        <f>E211*B211</f>
+        <f t="shared" si="20"/>
         <v>260.19</v>
       </c>
       <c r="G211" s="7"/>
@@ -6702,15 +6679,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D212" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>87.2</v>
       </c>
       <c r="E212" s="7">
-        <f>C212*3</f>
+        <f t="shared" si="19"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F212" s="7">
-        <f>E212*B212</f>
+        <f t="shared" si="20"/>
         <v>261.60000000000002</v>
       </c>
       <c r="G212" s="7"/>
@@ -6727,15 +6704,15 @@
         <v>1.77</v>
       </c>
       <c r="D213" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>54.87</v>
       </c>
       <c r="E213" s="7">
-        <f>C213*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F213" s="7">
-        <f>E213*B213</f>
+        <f t="shared" si="20"/>
         <v>164.61</v>
       </c>
       <c r="G213" s="7"/>
@@ -6752,15 +6729,15 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D214" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>66.150000000000006</v>
       </c>
       <c r="E214" s="7">
-        <f>C214*3</f>
+        <f t="shared" si="19"/>
         <v>9.4500000000000011</v>
       </c>
       <c r="F214" s="7">
-        <f>E214*B214</f>
+        <f t="shared" si="20"/>
         <v>198.45000000000002</v>
       </c>
       <c r="G214" s="7"/>
@@ -6777,15 +6754,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D215" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>80.41</v>
       </c>
       <c r="E215" s="7">
-        <f>C215*3</f>
+        <f t="shared" si="19"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F215" s="7">
-        <f>E215*B215</f>
+        <f t="shared" si="20"/>
         <v>241.22999999999996</v>
       </c>
       <c r="G215" s="7"/>
@@ -6802,15 +6779,15 @@
         <v>2.84</v>
       </c>
       <c r="D216" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>133.47999999999999</v>
       </c>
       <c r="E216" s="7">
-        <f>C216*3</f>
+        <f t="shared" si="19"/>
         <v>8.52</v>
       </c>
       <c r="F216" s="7">
-        <f>E216*B216</f>
+        <f t="shared" si="20"/>
         <v>400.44</v>
       </c>
       <c r="G216" s="7"/>
@@ -6827,15 +6804,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D217" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>381.5</v>
       </c>
       <c r="E217" s="7">
-        <f>C217*3</f>
+        <f t="shared" si="19"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F217" s="7">
-        <f>E217*B217</f>
+        <f t="shared" si="20"/>
         <v>1144.5000000000002</v>
       </c>
       <c r="G217" s="7"/>
@@ -6852,15 +6829,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D218" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>43.01</v>
       </c>
       <c r="E218" s="7">
-        <f>C218*3</f>
+        <f t="shared" si="19"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F218" s="7">
-        <f>E218*B218</f>
+        <f t="shared" si="20"/>
         <v>129.02999999999997</v>
       </c>
       <c r="G218" s="7"/>
@@ -6877,15 +6854,15 @@
         <v>1.77</v>
       </c>
       <c r="D219" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>70.8</v>
       </c>
       <c r="E219" s="7">
-        <f>C219*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F219" s="7">
-        <f>E219*B219</f>
+        <f t="shared" si="20"/>
         <v>212.40000000000003</v>
       </c>
       <c r="G219" s="7"/>
@@ -6902,15 +6879,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D220" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>189.66000000000003</v>
       </c>
       <c r="E220" s="7">
-        <f>C220*3</f>
+        <f t="shared" si="19"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F220" s="7">
-        <f>E220*B220</f>
+        <f t="shared" si="20"/>
         <v>568.98000000000013</v>
       </c>
       <c r="G220" s="7"/>
@@ -6927,15 +6904,15 @@
         <v>1.77</v>
       </c>
       <c r="D221" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>76.11</v>
       </c>
       <c r="E221" s="7">
-        <f>C221*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F221" s="7">
-        <f>E221*B221</f>
+        <f t="shared" si="20"/>
         <v>228.33</v>
       </c>
       <c r="G221" s="7"/>
@@ -6952,15 +6929,15 @@
         <v>3.49</v>
       </c>
       <c r="D222" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>104.7</v>
       </c>
       <c r="E222" s="7">
-        <f>C222*3</f>
+        <f t="shared" si="19"/>
         <v>10.47</v>
       </c>
       <c r="F222" s="7">
-        <f>E222*B222</f>
+        <f t="shared" si="20"/>
         <v>314.10000000000002</v>
       </c>
       <c r="G222" s="7"/>
@@ -6977,15 +6954,15 @@
         <v>1.77</v>
       </c>
       <c r="D223" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>61.95</v>
       </c>
       <c r="E223" s="7">
-        <f>C223*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F223" s="7">
-        <f>E223*B223</f>
+        <f t="shared" si="20"/>
         <v>185.85000000000002</v>
       </c>
       <c r="G223" s="7"/>
@@ -7002,15 +6979,15 @@
         <v>1.87</v>
       </c>
       <c r="D224" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>106.59</v>
       </c>
       <c r="E224" s="7">
-        <f>C224*3</f>
+        <f t="shared" si="19"/>
         <v>5.61</v>
       </c>
       <c r="F224" s="7">
-        <f>E224*B224</f>
+        <f t="shared" si="20"/>
         <v>319.77000000000004</v>
       </c>
       <c r="G224" s="7"/>
@@ -7027,15 +7004,15 @@
         <v>1.68</v>
       </c>
       <c r="D225" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="E225" s="7">
-        <f>C225*3</f>
+        <f t="shared" si="19"/>
         <v>5.04</v>
       </c>
       <c r="F225" s="7">
-        <f>E225*B225</f>
+        <f t="shared" si="20"/>
         <v>126</v>
       </c>
       <c r="G225" s="7"/>
@@ -7052,15 +7029,15 @@
         <v>1.87</v>
       </c>
       <c r="D226" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>44.88</v>
       </c>
       <c r="E226" s="7">
-        <f>C226*3</f>
+        <f t="shared" si="19"/>
         <v>5.61</v>
       </c>
       <c r="F226" s="7">
-        <f>E226*B226</f>
+        <f t="shared" si="20"/>
         <v>134.64000000000001</v>
       </c>
       <c r="G226" s="7"/>
@@ -7077,15 +7054,15 @@
         <v>1.87</v>
       </c>
       <c r="D227" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>155.21</v>
       </c>
       <c r="E227" s="7">
-        <f>C227*3</f>
+        <f t="shared" si="19"/>
         <v>5.61</v>
       </c>
       <c r="F227" s="7">
-        <f>E227*B227</f>
+        <f t="shared" si="20"/>
         <v>465.63000000000005</v>
       </c>
       <c r="G227" s="7"/>
@@ -7102,15 +7079,15 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D228" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>352.16</v>
       </c>
       <c r="E228" s="7">
-        <f>C228*3</f>
+        <f t="shared" si="19"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="F228" s="7">
-        <f>E228*B228</f>
+        <f t="shared" si="20"/>
         <v>1056.4800000000002</v>
       </c>
       <c r="G228" s="7"/>
@@ -7127,15 +7104,15 @@
         <v>1.77</v>
       </c>
       <c r="D229" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>242.49</v>
       </c>
       <c r="E229" s="7">
-        <f>C229*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F229" s="7">
-        <f>E229*B229</f>
+        <f t="shared" si="20"/>
         <v>727.47</v>
       </c>
       <c r="G229" s="7"/>
@@ -7152,15 +7129,15 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D230" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>318.27999999999997</v>
       </c>
       <c r="E230" s="7">
-        <f>C230*3</f>
+        <f t="shared" si="19"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="F230" s="7">
-        <f>E230*B230</f>
+        <f t="shared" si="20"/>
         <v>954.83999999999992</v>
       </c>
       <c r="G230" s="7"/>
@@ -7177,15 +7154,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D231" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>63.58</v>
       </c>
       <c r="E231" s="7">
-        <f>C231*3</f>
+        <f t="shared" si="19"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F231" s="7">
-        <f>E231*B231</f>
+        <f t="shared" si="20"/>
         <v>190.73999999999998</v>
       </c>
       <c r="G231" s="7"/>
@@ -7202,15 +7179,15 @@
         <v>1.77</v>
       </c>
       <c r="D232" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>35.4</v>
       </c>
       <c r="E232" s="7">
-        <f>C232*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F232" s="7">
-        <f>E232*B232</f>
+        <f t="shared" si="20"/>
         <v>106.20000000000002</v>
       </c>
       <c r="G232" s="7"/>
@@ -7227,15 +7204,15 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D233" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>303.02</v>
       </c>
       <c r="E233" s="7">
-        <f>C233*3</f>
+        <f t="shared" si="19"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="F233" s="7">
-        <f>E233*B233</f>
+        <f t="shared" si="20"/>
         <v>909.05999999999983</v>
       </c>
       <c r="G233" s="7"/>
@@ -7252,15 +7229,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D234" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>394.57</v>
       </c>
       <c r="E234" s="7">
-        <f>C234*3</f>
+        <f t="shared" si="19"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F234" s="7">
-        <f>E234*B234</f>
+        <f t="shared" si="20"/>
         <v>1183.7099999999998</v>
       </c>
       <c r="G234" s="7"/>
@@ -7277,15 +7254,15 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D235" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>69.8</v>
       </c>
       <c r="E235" s="7">
-        <f>C235*3</f>
+        <f t="shared" si="19"/>
         <v>10.469999999999999</v>
       </c>
       <c r="F235" s="7">
-        <f>E235*B235</f>
+        <f t="shared" si="20"/>
         <v>209.39999999999998</v>
       </c>
       <c r="G235" s="7"/>
@@ -7302,15 +7279,15 @@
         <v>1.87</v>
       </c>
       <c r="D236" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>78.540000000000006</v>
       </c>
       <c r="E236" s="7">
-        <f>C236*3</f>
+        <f t="shared" si="19"/>
         <v>5.61</v>
       </c>
       <c r="F236" s="7">
-        <f>E236*B236</f>
+        <f t="shared" si="20"/>
         <v>235.62</v>
       </c>
       <c r="G236" s="7"/>
@@ -7327,15 +7304,15 @@
         <v>2.84</v>
       </c>
       <c r="D237" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>284</v>
       </c>
       <c r="E237" s="7">
-        <f>C237*3</f>
+        <f t="shared" si="19"/>
         <v>8.52</v>
       </c>
       <c r="F237" s="7">
-        <f>E237*B237</f>
+        <f t="shared" si="20"/>
         <v>852</v>
       </c>
       <c r="G237" s="7"/>
@@ -7352,15 +7329,15 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D238" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>67.260000000000005</v>
       </c>
       <c r="E238" s="7">
-        <f>C238*3</f>
+        <f t="shared" si="19"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="F238" s="7">
-        <f>E238*B238</f>
+        <f t="shared" si="20"/>
         <v>201.78000000000003</v>
       </c>
       <c r="G238" s="7"/>
@@ -7377,15 +7354,15 @@
         <v>3.49</v>
       </c>
       <c r="D239" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>87.25</v>
       </c>
       <c r="E239" s="7">
-        <f>C239*3</f>
+        <f t="shared" si="19"/>
         <v>10.47</v>
       </c>
       <c r="F239" s="7">
-        <f>E239*B239</f>
+        <f t="shared" si="20"/>
         <v>261.75</v>
       </c>
       <c r="G239" s="7"/>
@@ -7402,15 +7379,15 @@
         <v>1.87</v>
       </c>
       <c r="D240" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>179.52</v>
       </c>
       <c r="E240" s="7">
-        <f>C240*3</f>
+        <f t="shared" si="19"/>
         <v>5.61</v>
       </c>
       <c r="F240" s="7">
-        <f>E240*B240</f>
+        <f t="shared" si="20"/>
         <v>538.56000000000006</v>
       </c>
       <c r="G240" s="7"/>
@@ -7427,15 +7404,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D241" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>74.12</v>
       </c>
       <c r="E241" s="7">
-        <f>C241*3</f>
+        <f t="shared" si="19"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="F241" s="7">
-        <f>E241*B241</f>
+        <f t="shared" si="20"/>
         <v>222.36000000000004</v>
       </c>
       <c r="G241" s="7"/>
@@ -7452,15 +7429,15 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D242" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>458.15</v>
       </c>
       <c r="E242" s="7">
-        <f>C242*3</f>
+        <f t="shared" si="19"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="F242" s="7">
-        <f>E242*B242</f>
+        <f t="shared" si="20"/>
         <v>1374.4499999999998</v>
       </c>
       <c r="G242" s="7"/>
@@ -7477,15 +7454,15 @@
         <v>3.49</v>
       </c>
       <c r="D243" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>104.7</v>
       </c>
       <c r="E243" s="7">
-        <f>C243*3</f>
+        <f t="shared" si="19"/>
         <v>10.47</v>
       </c>
       <c r="F243" s="7">
-        <f>E243*B243</f>
+        <f t="shared" si="20"/>
         <v>314.10000000000002</v>
       </c>
       <c r="G243" s="7"/>
@@ -7502,15 +7479,15 @@
         <v>1.87</v>
       </c>
       <c r="D244" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>56.1</v>
       </c>
       <c r="E244" s="7">
-        <f>C244*3</f>
+        <f t="shared" si="19"/>
         <v>5.61</v>
       </c>
       <c r="F244" s="7">
-        <f>E244*B244</f>
+        <f t="shared" si="20"/>
         <v>168.3</v>
       </c>
       <c r="G244" s="7"/>
@@ -7527,21 +7504,21 @@
         <v>2.84</v>
       </c>
       <c r="D245" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>124.96</v>
       </c>
       <c r="E245" s="7">
-        <f>C245*3</f>
+        <f t="shared" si="19"/>
         <v>8.52</v>
       </c>
       <c r="F245" s="7">
-        <f>E245*B245</f>
+        <f t="shared" si="20"/>
         <v>374.88</v>
       </c>
       <c r="G245" s="7"/>
       <c r="H245" s="7"/>
       <c r="L245" s="27"/>
-      <c r="M245" s="40"/>
+      <c r="M245" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{17F82063-B0EE-4E46-ABC3-ED3A385CFF10}"/>
@@ -7557,7 +7534,7 @@
   </sheetPr>
   <dimension ref="A1:N245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H10" sqref="H10:I11"/>
     </sheetView>
   </sheetViews>
@@ -7609,7 +7586,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D2" s="7">
-        <f>C2*B2</f>
+        <f t="shared" ref="D2:D33" si="0">C2*B2</f>
         <v>58.41</v>
       </c>
       <c r="E2" s="7"/>
@@ -7625,7 +7602,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D3" s="7">
-        <f>C3*B3</f>
+        <f t="shared" si="0"/>
         <v>303.63</v>
       </c>
       <c r="E3" s="7"/>
@@ -7641,7 +7618,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D4" s="7">
-        <f>C4*B4</f>
+        <f t="shared" si="0"/>
         <v>108.46</v>
       </c>
       <c r="E4" s="7"/>
@@ -7657,7 +7634,7 @@
         <v>1.87</v>
       </c>
       <c r="D5" s="7">
-        <f>C5*B5</f>
+        <f t="shared" si="0"/>
         <v>153.34</v>
       </c>
       <c r="E5" s="7"/>
@@ -7677,7 +7654,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D6" s="7">
-        <f>C6*B6</f>
+        <f t="shared" si="0"/>
         <v>82.84</v>
       </c>
       <c r="E6" s="7"/>
@@ -7700,7 +7677,7 @@
         <v>1.77</v>
       </c>
       <c r="D7" s="7">
-        <f>C7*B7</f>
+        <f t="shared" si="0"/>
         <v>95.58</v>
       </c>
       <c r="E7" s="7"/>
@@ -7723,7 +7700,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D8" s="7">
-        <f>C8*B8</f>
+        <f t="shared" si="0"/>
         <v>520.01</v>
       </c>
       <c r="E8" s="7"/>
@@ -7746,7 +7723,7 @@
         <v>1.77</v>
       </c>
       <c r="D9" s="7">
-        <f>C9*B9</f>
+        <f t="shared" si="0"/>
         <v>90.27</v>
       </c>
       <c r="E9" s="7"/>
@@ -7769,7 +7746,7 @@
         <v>1.77</v>
       </c>
       <c r="D10" s="7">
-        <f>C10*B10</f>
+        <f t="shared" si="0"/>
         <v>177</v>
       </c>
       <c r="E10" s="7"/>
@@ -7787,7 +7764,7 @@
         <v>1.35</v>
       </c>
       <c r="D11" s="7">
-        <f>C11*B11</f>
+        <f t="shared" si="0"/>
         <v>37.800000000000004</v>
       </c>
       <c r="E11" s="7"/>
@@ -7812,7 +7789,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D12" s="7">
-        <f>C12*B12</f>
+        <f t="shared" si="0"/>
         <v>78.48</v>
       </c>
       <c r="E12" s="7"/>
@@ -7834,7 +7811,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D13" s="7">
-        <f>C13*B13</f>
+        <f t="shared" si="0"/>
         <v>57.97</v>
       </c>
       <c r="E13" s="7"/>
@@ -7856,7 +7833,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D14" s="7">
-        <f>C14*B14</f>
+        <f t="shared" si="0"/>
         <v>97.72</v>
       </c>
       <c r="E14" s="7"/>
@@ -7872,7 +7849,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D15" s="7">
-        <f>C15*B15</f>
+        <f t="shared" si="0"/>
         <v>77.88</v>
       </c>
       <c r="E15" s="7"/>
@@ -7892,7 +7869,7 @@
         <v>1.77</v>
       </c>
       <c r="D16" s="7">
-        <f>C16*B16</f>
+        <f t="shared" si="0"/>
         <v>40.71</v>
       </c>
       <c r="E16" s="7"/>
@@ -7912,7 +7889,7 @@
         <v>1.35</v>
       </c>
       <c r="D17" s="7">
-        <f>C17*B17</f>
+        <f t="shared" si="0"/>
         <v>36.450000000000003</v>
       </c>
       <c r="E17" s="7"/>
@@ -7928,7 +7905,7 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D18" s="7">
-        <f>C18*B18</f>
+        <f t="shared" si="0"/>
         <v>93.739999999999981</v>
       </c>
       <c r="E18" s="7"/>
@@ -7944,7 +7921,7 @@
         <v>2.84</v>
       </c>
       <c r="D19" s="7">
-        <f>C19*B19</f>
+        <f t="shared" si="0"/>
         <v>349.32</v>
       </c>
       <c r="E19" s="7"/>
@@ -7960,7 +7937,7 @@
         <v>1.87</v>
       </c>
       <c r="D20" s="7">
-        <f>C20*B20</f>
+        <f t="shared" si="0"/>
         <v>78.540000000000006</v>
       </c>
       <c r="E20" s="7"/>
@@ -7976,7 +7953,7 @@
         <v>2.84</v>
       </c>
       <c r="D21" s="7">
-        <f>C21*B21</f>
+        <f t="shared" si="0"/>
         <v>93.72</v>
       </c>
       <c r="E21" s="7"/>
@@ -7992,7 +7969,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D22" s="7">
-        <f>C22*B22</f>
+        <f t="shared" si="0"/>
         <v>158.94999999999999</v>
       </c>
       <c r="E22" s="7"/>
@@ -8008,7 +7985,7 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D23" s="7">
-        <f>C23*B23</f>
+        <f t="shared" si="0"/>
         <v>85.2</v>
       </c>
       <c r="E23" s="7"/>
@@ -8024,7 +8001,7 @@
         <v>1.77</v>
       </c>
       <c r="D24" s="7">
-        <f>C24*B24</f>
+        <f t="shared" si="0"/>
         <v>107.97</v>
       </c>
       <c r="E24" s="7"/>
@@ -8040,7 +8017,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D25" s="7">
-        <f>C25*B25</f>
+        <f t="shared" si="0"/>
         <v>139.6</v>
       </c>
       <c r="E25" s="7"/>
@@ -8056,7 +8033,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D26" s="7">
-        <f>C26*B26</f>
+        <f t="shared" si="0"/>
         <v>160.82</v>
       </c>
       <c r="E26" s="7"/>
@@ -8072,7 +8049,7 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D27" s="7">
-        <f>C27*B27</f>
+        <f t="shared" si="0"/>
         <v>67.260000000000005</v>
       </c>
       <c r="E27" s="7"/>
@@ -8088,7 +8065,7 @@
         <v>1.68</v>
       </c>
       <c r="D28" s="7">
-        <f>C28*B28</f>
+        <f t="shared" si="0"/>
         <v>114.24</v>
       </c>
       <c r="E28" s="7"/>
@@ -8104,7 +8081,7 @@
         <v>1.87</v>
       </c>
       <c r="D29" s="7">
-        <f>C29*B29</f>
+        <f t="shared" si="0"/>
         <v>72.930000000000007</v>
       </c>
       <c r="E29" s="7"/>
@@ -8120,7 +8097,7 @@
         <v>1.87</v>
       </c>
       <c r="D30" s="7">
-        <f>C30*B30</f>
+        <f t="shared" si="0"/>
         <v>192.61</v>
       </c>
       <c r="E30" s="7"/>
@@ -8136,7 +8113,7 @@
         <v>2.84</v>
       </c>
       <c r="D31" s="7">
-        <f>C31*B31</f>
+        <f t="shared" si="0"/>
         <v>548.12</v>
       </c>
       <c r="E31" s="7"/>
@@ -8152,7 +8129,7 @@
         <v>1.77</v>
       </c>
       <c r="D32" s="7">
-        <f>C32*B32</f>
+        <f t="shared" si="0"/>
         <v>102.66</v>
       </c>
       <c r="E32" s="7"/>
@@ -8168,7 +8145,7 @@
         <v>1.68</v>
       </c>
       <c r="D33" s="7">
-        <f>C33*B33</f>
+        <f t="shared" si="0"/>
         <v>114.24</v>
       </c>
       <c r="E33" s="7"/>
@@ -8184,7 +8161,7 @@
         <v>1.77</v>
       </c>
       <c r="D34" s="7">
-        <f>C34*B34</f>
+        <f t="shared" ref="D34:D65" si="1">C34*B34</f>
         <v>161.07</v>
       </c>
       <c r="E34" s="7"/>
@@ -8200,7 +8177,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D35" s="7">
-        <f>C35*B35</f>
+        <f t="shared" si="1"/>
         <v>80.27</v>
       </c>
       <c r="E35" s="7"/>
@@ -8216,7 +8193,7 @@
         <v>1.68</v>
       </c>
       <c r="D36" s="7">
-        <f>C36*B36</f>
+        <f t="shared" si="1"/>
         <v>47.04</v>
       </c>
       <c r="E36" s="7"/>
@@ -8232,7 +8209,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D37" s="7">
-        <f>C37*B37</f>
+        <f t="shared" si="1"/>
         <v>84.96</v>
       </c>
       <c r="E37" s="7"/>
@@ -8248,7 +8225,7 @@
         <v>1.68</v>
       </c>
       <c r="D38" s="7">
-        <f>C38*B38</f>
+        <f t="shared" si="1"/>
         <v>225.12</v>
       </c>
       <c r="E38" s="7"/>
@@ -8264,7 +8241,7 @@
         <v>1.77</v>
       </c>
       <c r="D39" s="7">
-        <f>C39*B39</f>
+        <f t="shared" si="1"/>
         <v>35.4</v>
       </c>
       <c r="E39" s="7"/>
@@ -8280,7 +8257,7 @@
         <v>1.77</v>
       </c>
       <c r="D40" s="7">
-        <f>C40*B40</f>
+        <f t="shared" si="1"/>
         <v>93.81</v>
       </c>
       <c r="E40" s="7"/>
@@ -8296,7 +8273,7 @@
         <v>1.68</v>
       </c>
       <c r="D41" s="7">
-        <f>C41*B41</f>
+        <f t="shared" si="1"/>
         <v>107.52</v>
       </c>
       <c r="E41" s="7"/>
@@ -8312,7 +8289,7 @@
         <v>1.87</v>
       </c>
       <c r="D42" s="7">
-        <f>C42*B42</f>
+        <f t="shared" si="1"/>
         <v>117.81</v>
       </c>
       <c r="E42" s="7"/>
@@ -8328,7 +8305,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D43" s="7">
-        <f>C43*B43</f>
+        <f t="shared" si="1"/>
         <v>196.35</v>
       </c>
       <c r="E43" s="7"/>
@@ -8344,7 +8321,7 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D44" s="7">
-        <f>C44*B44</f>
+        <f t="shared" si="1"/>
         <v>391.92</v>
       </c>
       <c r="E44" s="7"/>
@@ -8360,7 +8337,7 @@
         <v>1.77</v>
       </c>
       <c r="D45" s="7">
-        <f>C45*B45</f>
+        <f t="shared" si="1"/>
         <v>44.25</v>
       </c>
       <c r="E45" s="7"/>
@@ -8376,7 +8353,7 @@
         <v>3.49</v>
       </c>
       <c r="D46" s="7">
-        <f>C46*B46</f>
+        <f t="shared" si="1"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E46" s="7"/>
@@ -8392,7 +8369,7 @@
         <v>1.77</v>
       </c>
       <c r="D47" s="7">
-        <f>C47*B47</f>
+        <f t="shared" si="1"/>
         <v>107.97</v>
       </c>
       <c r="E47" s="7"/>
@@ -8408,7 +8385,7 @@
         <v>1.68</v>
       </c>
       <c r="D48" s="7">
-        <f>C48*B48</f>
+        <f t="shared" si="1"/>
         <v>82.32</v>
       </c>
       <c r="E48" s="7"/>
@@ -8424,7 +8401,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D49" s="7">
-        <f>C49*B49</f>
+        <f t="shared" si="1"/>
         <v>102.85</v>
       </c>
       <c r="E49" s="7"/>
@@ -8440,7 +8417,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D50" s="7">
-        <f>C50*B50</f>
+        <f t="shared" si="1"/>
         <v>58.860000000000007</v>
       </c>
       <c r="E50" s="7"/>
@@ -8456,7 +8433,7 @@
         <v>1.77</v>
       </c>
       <c r="D51" s="7">
-        <f>C51*B51</f>
+        <f t="shared" si="1"/>
         <v>102.66</v>
       </c>
       <c r="E51" s="7"/>
@@ -8472,7 +8449,7 @@
         <v>3.49</v>
       </c>
       <c r="D52" s="7">
-        <f>C52*B52</f>
+        <f t="shared" si="1"/>
         <v>115.17</v>
       </c>
       <c r="E52" s="7"/>
@@ -8488,7 +8465,7 @@
         <v>2.84</v>
       </c>
       <c r="D53" s="7">
-        <f>C53*B53</f>
+        <f t="shared" si="1"/>
         <v>817.92</v>
       </c>
       <c r="E53" s="7"/>
@@ -8504,7 +8481,7 @@
         <v>1.87</v>
       </c>
       <c r="D54" s="7">
-        <f>C54*B54</f>
+        <f t="shared" si="1"/>
         <v>142.12</v>
       </c>
       <c r="E54" s="7"/>
@@ -8520,7 +8497,7 @@
         <v>1.77</v>
       </c>
       <c r="D55" s="7">
-        <f>C55*B55</f>
+        <f t="shared" si="1"/>
         <v>74.34</v>
       </c>
       <c r="E55" s="7"/>
@@ -8536,7 +8513,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D56" s="7">
-        <f>C56*B56</f>
+        <f t="shared" si="1"/>
         <v>69.8</v>
       </c>
       <c r="E56" s="7"/>
@@ -8552,7 +8529,7 @@
         <v>1.77</v>
       </c>
       <c r="D57" s="7">
-        <f>C57*B57</f>
+        <f t="shared" si="1"/>
         <v>132.75</v>
       </c>
       <c r="E57" s="7"/>
@@ -8568,7 +8545,7 @@
         <v>3.49</v>
       </c>
       <c r="D58" s="7">
-        <f>C58*B58</f>
+        <f t="shared" si="1"/>
         <v>132.62</v>
       </c>
       <c r="E58" s="7"/>
@@ -8584,7 +8561,7 @@
         <v>1.77</v>
       </c>
       <c r="D59" s="7">
-        <f>C59*B59</f>
+        <f t="shared" si="1"/>
         <v>541.62</v>
       </c>
       <c r="E59" s="7"/>
@@ -8600,7 +8577,7 @@
         <v>1.68</v>
       </c>
       <c r="D60" s="7">
-        <f>C60*B60</f>
+        <f t="shared" si="1"/>
         <v>47.04</v>
       </c>
       <c r="E60" s="7"/>
@@ -8616,7 +8593,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D61" s="7">
-        <f>C61*B61</f>
+        <f t="shared" si="1"/>
         <v>205.7</v>
       </c>
       <c r="E61" s="7"/>
@@ -8632,7 +8609,7 @@
         <v>2.84</v>
       </c>
       <c r="D62" s="7">
-        <f>C62*B62</f>
+        <f t="shared" si="1"/>
         <v>144.84</v>
       </c>
       <c r="E62" s="7"/>
@@ -8648,7 +8625,7 @@
         <v>1.77</v>
       </c>
       <c r="D63" s="7">
-        <f>C63*B63</f>
+        <f t="shared" si="1"/>
         <v>92.04</v>
       </c>
       <c r="E63" s="7"/>
@@ -8664,7 +8641,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D64" s="7">
-        <f>C64*B64</f>
+        <f t="shared" si="1"/>
         <v>97.72</v>
       </c>
       <c r="E64" s="7"/>
@@ -8680,7 +8657,7 @@
         <v>1.77</v>
       </c>
       <c r="D65" s="7">
-        <f>C65*B65</f>
+        <f t="shared" si="1"/>
         <v>240.72</v>
       </c>
       <c r="E65" s="7"/>
@@ -8696,7 +8673,7 @@
         <v>3.49</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" ref="D66:D129" si="0">C66*B66</f>
+        <f t="shared" ref="D66:D129" si="2">C66*B66</f>
         <v>146.58000000000001</v>
       </c>
       <c r="E66" s="7"/>
@@ -8712,7 +8689,7 @@
         <v>1.87</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>140.25</v>
       </c>
       <c r="E67" s="7"/>
@@ -8728,7 +8705,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>134.63999999999999</v>
       </c>
       <c r="E68" s="7"/>
@@ -8744,7 +8721,7 @@
         <v>2.84</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>159.04</v>
       </c>
       <c r="E69" s="7"/>
@@ -8760,7 +8737,7 @@
         <v>1.87</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95.37</v>
       </c>
       <c r="E70" s="7"/>
@@ -8776,7 +8753,7 @@
         <v>1.68</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52.08</v>
       </c>
       <c r="E71" s="7"/>
@@ -8792,7 +8769,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104.72</v>
       </c>
       <c r="E72" s="7"/>
@@ -8808,7 +8785,7 @@
         <v>2.84</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>389.08</v>
       </c>
       <c r="E73" s="7"/>
@@ -8824,7 +8801,7 @@
         <v>1.87</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>200.09</v>
       </c>
       <c r="E74" s="7"/>
@@ -8840,7 +8817,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.48</v>
       </c>
       <c r="E75" s="7"/>
@@ -8856,7 +8833,7 @@
         <v>3.49</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104.7</v>
       </c>
       <c r="E76" s="7"/>
@@ -8872,7 +8849,7 @@
         <v>1.87</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>130.9</v>
       </c>
       <c r="E77" s="7"/>
@@ -8888,7 +8865,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67.58</v>
       </c>
       <c r="E78" s="7"/>
@@ -8904,7 +8881,7 @@
         <v>1.77</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>192.93</v>
       </c>
       <c r="E79" s="7"/>
@@ -8920,7 +8897,7 @@
         <v>3.49</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E80" s="7"/>
@@ -8936,7 +8913,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>149.6</v>
       </c>
       <c r="E81" s="7"/>
@@ -8952,7 +8929,7 @@
         <v>1.87</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>140.25</v>
       </c>
       <c r="E82" s="7"/>
@@ -8968,7 +8945,7 @@
         <v>2.84</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>210.16</v>
       </c>
       <c r="E83" s="7"/>
@@ -8984,7 +8961,7 @@
         <v>1.77</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>79.650000000000006</v>
       </c>
       <c r="E84" s="7"/>
@@ -9000,7 +8977,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>61.040000000000006</v>
       </c>
       <c r="E85" s="7"/>
@@ -9016,7 +8993,7 @@
         <v>1.77</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>253.11</v>
       </c>
       <c r="E86" s="7"/>
@@ -9032,7 +9009,7 @@
         <v>3.15</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85.05</v>
       </c>
       <c r="E87" s="7"/>
@@ -9048,7 +9025,7 @@
         <v>1.77</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>235.41</v>
       </c>
       <c r="E88" s="7"/>
@@ -9064,7 +9041,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>239.8</v>
       </c>
       <c r="E89" s="7"/>
@@ -9080,7 +9057,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121.55</v>
       </c>
       <c r="E90" s="7"/>
@@ -9096,7 +9073,7 @@
         <v>1.87</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>61.71</v>
       </c>
       <c r="E91" s="7"/>
@@ -9112,7 +9089,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>176.58</v>
       </c>
       <c r="E92" s="7"/>
@@ -9128,7 +9105,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>136.29</v>
       </c>
       <c r="E93" s="7"/>
@@ -9144,7 +9121,7 @@
         <v>3.49</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>132.62</v>
       </c>
       <c r="E94" s="7"/>
@@ -9160,7 +9137,7 @@
         <v>1.77</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70.8</v>
       </c>
       <c r="E95" s="7"/>
@@ -9176,7 +9153,7 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>191.52</v>
       </c>
       <c r="E96" s="7"/>
@@ -9192,7 +9169,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>488.32000000000005</v>
       </c>
       <c r="E97" s="7"/>
@@ -9208,7 +9185,7 @@
         <v>1.77</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>249.57</v>
       </c>
       <c r="E98" s="7"/>
@@ -9224,7 +9201,7 @@
         <v>3.49</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>111.68</v>
       </c>
       <c r="E99" s="7"/>
@@ -9240,7 +9217,7 @@
         <v>1.77</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35.4</v>
       </c>
       <c r="E100" s="7"/>
@@ -9256,7 +9233,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>87.2</v>
       </c>
       <c r="E101" s="7"/>
@@ -9272,7 +9249,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>91.63</v>
       </c>
       <c r="E102" s="7"/>
@@ -9288,7 +9265,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>160.54</v>
       </c>
       <c r="E103" s="7"/>
@@ -9304,7 +9281,7 @@
         <v>1.77</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>69.03</v>
       </c>
       <c r="E104" s="7"/>
@@ -9320,7 +9297,7 @@
         <v>1.68</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104.16</v>
       </c>
       <c r="E105" s="7"/>
@@ -9336,7 +9313,7 @@
         <v>1.77</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>159.30000000000001</v>
       </c>
       <c r="E106" s="7"/>
@@ -9352,7 +9329,7 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>224.53999999999996</v>
       </c>
       <c r="E107" s="7"/>
@@ -9368,7 +9345,7 @@
         <v>2.84</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90.88</v>
       </c>
       <c r="E108" s="7"/>
@@ -9384,7 +9361,7 @@
         <v>1.87</v>
       </c>
       <c r="D109" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>123.42</v>
       </c>
       <c r="E109" s="7"/>
@@ -9400,7 +9377,7 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D110" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>275.48</v>
       </c>
       <c r="E110" s="7"/>
@@ -9416,7 +9393,7 @@
         <v>1.77</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53.1</v>
       </c>
       <c r="E111" s="7"/>
@@ -9432,7 +9409,7 @@
         <v>1.68</v>
       </c>
       <c r="D112" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48.72</v>
       </c>
       <c r="E112" s="7"/>
@@ -9448,7 +9425,7 @@
         <v>1.77</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>162.84</v>
       </c>
       <c r="E113" s="7"/>
@@ -9464,7 +9441,7 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D114" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>303.02</v>
       </c>
       <c r="E114" s="7"/>
@@ -9480,7 +9457,7 @@
         <v>2.84</v>
       </c>
       <c r="D115" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>82.36</v>
       </c>
       <c r="E115" s="7"/>
@@ -9496,7 +9473,7 @@
         <v>2.27</v>
       </c>
       <c r="D116" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>68.099999999999994</v>
       </c>
       <c r="E116" s="7"/>
@@ -9512,7 +9489,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D117" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67.319999999999993</v>
       </c>
       <c r="E117" s="7"/>
@@ -9528,7 +9505,7 @@
         <v>3.49</v>
       </c>
       <c r="D118" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>143.09</v>
       </c>
       <c r="E118" s="7"/>
@@ -9544,7 +9521,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D119" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>77.88</v>
       </c>
       <c r="E119" s="7"/>
@@ -9560,7 +9537,7 @@
         <v>1.68</v>
       </c>
       <c r="D120" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48.72</v>
       </c>
       <c r="E120" s="7"/>
@@ -9576,7 +9553,7 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D121" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>516.66</v>
       </c>
       <c r="E121" s="7"/>
@@ -9592,7 +9569,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D122" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121.55</v>
       </c>
       <c r="E122" s="7"/>
@@ -9608,7 +9585,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D123" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180.94000000000003</v>
       </c>
       <c r="E123" s="7"/>
@@ -9624,7 +9601,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D124" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>69.760000000000005</v>
       </c>
       <c r="E124" s="7"/>
@@ -9640,7 +9617,7 @@
         <v>1.77</v>
       </c>
       <c r="D125" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>111.51</v>
       </c>
       <c r="E125" s="7"/>
@@ -9656,7 +9633,7 @@
         <v>3.15</v>
       </c>
       <c r="D126" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>91.35</v>
       </c>
       <c r="E126" s="7"/>
@@ -9672,7 +9649,7 @@
         <v>1.87</v>
       </c>
       <c r="D127" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>143.99</v>
       </c>
       <c r="E127" s="7"/>
@@ -9688,7 +9665,7 @@
         <v>2.84</v>
       </c>
       <c r="D128" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>227.2</v>
       </c>
       <c r="E128" s="7"/>
@@ -9704,7 +9681,7 @@
         <v>1.77</v>
       </c>
       <c r="D129" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180.54</v>
       </c>
       <c r="E129" s="7"/>
@@ -9720,7 +9697,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D130" s="7">
-        <f t="shared" ref="D130:D193" si="1">C130*B130</f>
+        <f t="shared" ref="D130:D193" si="3">C130*B130</f>
         <v>108.19</v>
       </c>
       <c r="E130" s="7"/>
@@ -9736,7 +9713,7 @@
         <v>1.77</v>
       </c>
       <c r="D131" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99.12</v>
       </c>
       <c r="E131" s="7"/>
@@ -9752,7 +9729,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D132" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113.36000000000001</v>
       </c>
       <c r="E132" s="7"/>
@@ -9768,7 +9745,7 @@
         <v>1.77</v>
       </c>
       <c r="D133" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90.27</v>
       </c>
       <c r="E133" s="7"/>
@@ -9784,7 +9761,7 @@
         <v>1.68</v>
       </c>
       <c r="D134" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40.32</v>
       </c>
       <c r="E134" s="7"/>
@@ -9800,7 +9777,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D135" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>126.44000000000001</v>
       </c>
       <c r="E135" s="7"/>
@@ -9816,7 +9793,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D136" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63.58</v>
       </c>
       <c r="E136" s="7"/>
@@ -9832,7 +9809,7 @@
         <v>1.77</v>
       </c>
       <c r="D137" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60.18</v>
       </c>
       <c r="E137" s="7"/>
@@ -9848,7 +9825,7 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D138" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35.28</v>
       </c>
       <c r="E138" s="7"/>
@@ -9864,7 +9841,7 @@
         <v>2.84</v>
       </c>
       <c r="D139" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82.36</v>
       </c>
       <c r="E139" s="7"/>
@@ -9880,7 +9857,7 @@
         <v>1.77</v>
       </c>
       <c r="D140" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120.36</v>
       </c>
       <c r="E140" s="7"/>
@@ -9896,7 +9873,7 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D141" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97.65</v>
       </c>
       <c r="E141" s="7"/>
@@ -9912,7 +9889,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D142" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65.400000000000006</v>
       </c>
       <c r="E142" s="7"/>
@@ -9928,7 +9905,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D143" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>433.84</v>
       </c>
       <c r="E143" s="7"/>
@@ -9944,7 +9921,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D144" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>127.16</v>
       </c>
       <c r="E144" s="7"/>
@@ -9960,7 +9937,7 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D145" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>275.48</v>
       </c>
       <c r="E145" s="7"/>
@@ -9976,7 +9953,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D146" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160.82</v>
       </c>
       <c r="E146" s="7"/>
@@ -9992,7 +9969,7 @@
         <v>1.68</v>
       </c>
       <c r="D147" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68.88</v>
       </c>
       <c r="E147" s="7"/>
@@ -10008,7 +9985,7 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D148" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>164.61</v>
       </c>
       <c r="E148" s="7"/>
@@ -10024,7 +10001,7 @@
         <v>1.68</v>
       </c>
       <c r="D149" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78.959999999999994</v>
       </c>
       <c r="E149" s="7"/>
@@ -10040,7 +10017,7 @@
         <v>1.77</v>
       </c>
       <c r="D150" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>182.31</v>
       </c>
       <c r="E150" s="7"/>
@@ -10056,7 +10033,7 @@
         <v>1.68</v>
       </c>
       <c r="D151" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55.44</v>
       </c>
       <c r="E151" s="7"/>
@@ -10072,7 +10049,7 @@
         <v>1.87</v>
       </c>
       <c r="D152" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>106.59</v>
       </c>
       <c r="E152" s="7"/>
@@ -10088,7 +10065,7 @@
         <v>2.84</v>
       </c>
       <c r="D153" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>184.6</v>
       </c>
       <c r="E153" s="7"/>
@@ -10104,7 +10081,7 @@
         <v>1.77</v>
       </c>
       <c r="D154" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>208.86</v>
       </c>
       <c r="E154" s="7"/>
@@ -10120,7 +10097,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D155" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78.48</v>
       </c>
       <c r="E155" s="7"/>
@@ -10136,7 +10113,7 @@
         <v>2.84</v>
       </c>
       <c r="D156" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>349.32</v>
       </c>
       <c r="E156" s="7"/>
@@ -10152,7 +10129,7 @@
         <v>1.77</v>
       </c>
       <c r="D157" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>159.30000000000001</v>
       </c>
       <c r="E157" s="7"/>
@@ -10168,7 +10145,7 @@
         <v>3.49</v>
       </c>
       <c r="D158" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E158" s="7"/>
@@ -10184,7 +10161,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D159" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84.96</v>
       </c>
       <c r="E159" s="7"/>
@@ -10200,7 +10177,7 @@
         <v>1.68</v>
       </c>
       <c r="D160" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40.32</v>
       </c>
       <c r="E160" s="7"/>
@@ -10216,7 +10193,7 @@
         <v>1.87</v>
       </c>
       <c r="D161" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>125.29</v>
       </c>
       <c r="E161" s="7"/>
@@ -10232,7 +10209,7 @@
         <v>1.87</v>
       </c>
       <c r="D162" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50.49</v>
       </c>
       <c r="E162" s="7"/>
@@ -10248,7 +10225,7 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D163" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>366.36</v>
       </c>
       <c r="E163" s="7"/>
@@ -10264,7 +10241,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D164" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>167.86</v>
       </c>
       <c r="E164" s="7"/>
@@ -10280,7 +10257,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D165" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108.46</v>
       </c>
       <c r="E165" s="7"/>
@@ -10296,7 +10273,7 @@
         <v>1.87</v>
       </c>
       <c r="D166" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87.89</v>
       </c>
       <c r="E166" s="7"/>
@@ -10312,7 +10289,7 @@
         <v>2.84</v>
       </c>
       <c r="D167" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>93.72</v>
       </c>
       <c r="E167" s="7"/>
@@ -10328,7 +10305,7 @@
         <v>1.87</v>
       </c>
       <c r="D168" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>153.34</v>
       </c>
       <c r="E168" s="7"/>
@@ -10344,7 +10321,7 @@
         <v>1.77</v>
       </c>
       <c r="D169" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102.66</v>
       </c>
       <c r="E169" s="7"/>
@@ -10360,7 +10337,7 @@
         <v>3.15</v>
       </c>
       <c r="D170" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94.5</v>
       </c>
       <c r="E170" s="7"/>
@@ -10376,7 +10353,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D171" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80.41</v>
       </c>
       <c r="E171" s="7"/>
@@ -10392,7 +10369,7 @@
         <v>1.77</v>
       </c>
       <c r="D172" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>148.68</v>
       </c>
       <c r="E172" s="7"/>
@@ -10408,7 +10385,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D173" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78.48</v>
       </c>
       <c r="E173" s="7"/>
@@ -10424,7 +10401,7 @@
         <v>2.84</v>
       </c>
       <c r="D174" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124.96</v>
       </c>
       <c r="E174" s="7"/>
@@ -10440,7 +10417,7 @@
         <v>1.87</v>
       </c>
       <c r="D175" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50.49</v>
       </c>
       <c r="E175" s="7"/>
@@ -10456,7 +10433,7 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D176" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>340.8</v>
       </c>
       <c r="E176" s="7"/>
@@ -10472,7 +10449,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D177" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90.74</v>
       </c>
       <c r="E177" s="7"/>
@@ -10488,7 +10465,7 @@
         <v>1.77</v>
       </c>
       <c r="D178" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>129.21</v>
       </c>
       <c r="E178" s="7"/>
@@ -10504,7 +10481,7 @@
         <v>1.87</v>
       </c>
       <c r="D179" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71.06</v>
       </c>
       <c r="E179" s="7"/>
@@ -10520,7 +10497,7 @@
         <v>2.84</v>
       </c>
       <c r="D180" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113.6</v>
       </c>
       <c r="E180" s="7"/>
@@ -10536,7 +10513,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D181" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72.569999999999993</v>
       </c>
       <c r="E181" s="7"/>
@@ -10552,7 +10529,7 @@
         <v>2.27</v>
       </c>
       <c r="D182" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61.29</v>
       </c>
       <c r="E182" s="7"/>
@@ -10568,7 +10545,7 @@
         <v>1.87</v>
       </c>
       <c r="D183" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71.06</v>
       </c>
       <c r="E183" s="7"/>
@@ -10584,7 +10561,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D184" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118.66</v>
       </c>
       <c r="E184" s="7"/>
@@ -10600,7 +10577,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D185" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121.55</v>
       </c>
       <c r="E185" s="7"/>
@@ -10616,7 +10593,7 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D186" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>170.4</v>
       </c>
       <c r="E186" s="7"/>
@@ -10632,7 +10609,7 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D187" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80.66</v>
       </c>
       <c r="E187" s="7"/>
@@ -10648,7 +10625,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D188" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74.8</v>
       </c>
       <c r="E188" s="7"/>
@@ -10664,7 +10641,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D189" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48.62</v>
       </c>
       <c r="E189" s="7"/>
@@ -10680,7 +10657,7 @@
         <v>2.27</v>
       </c>
       <c r="D190" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49.94</v>
       </c>
       <c r="E190" s="7"/>
@@ -10696,7 +10673,7 @@
         <v>1.87</v>
       </c>
       <c r="D191" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59.84</v>
       </c>
       <c r="E191" s="7"/>
@@ -10712,7 +10689,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D192" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80.27</v>
       </c>
       <c r="E192" s="7"/>
@@ -10728,7 +10705,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D193" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43.6</v>
       </c>
       <c r="E193" s="7"/>
@@ -10744,7 +10721,7 @@
         <v>1.87</v>
       </c>
       <c r="D194" s="7">
-        <f t="shared" ref="D194:D245" si="2">C194*B194</f>
+        <f t="shared" ref="D194:D245" si="4">C194*B194</f>
         <v>119.68</v>
       </c>
       <c r="E194" s="7"/>
@@ -10760,7 +10737,7 @@
         <v>1.77</v>
       </c>
       <c r="D195" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>125.67</v>
       </c>
       <c r="E195" s="7"/>
@@ -10776,7 +10753,7 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D196" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>196.2</v>
       </c>
       <c r="E196" s="7"/>
@@ -10792,7 +10769,7 @@
         <v>2.84</v>
       </c>
       <c r="D197" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>107.91999999999999</v>
       </c>
       <c r="E197" s="7"/>
@@ -10808,7 +10785,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D198" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>97.35</v>
       </c>
       <c r="E198" s="7"/>
@@ -10824,7 +10801,7 @@
         <v>3.15</v>
       </c>
       <c r="D199" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69.3</v>
       </c>
       <c r="E199" s="7"/>
@@ -10840,7 +10817,7 @@
         <v>1.77</v>
       </c>
       <c r="D200" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60.18</v>
       </c>
       <c r="E200" s="7"/>
@@ -10856,7 +10833,7 @@
         <v>1.87</v>
       </c>
       <c r="D201" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72.930000000000007</v>
       </c>
       <c r="E201" s="7"/>
@@ -10872,7 +10849,7 @@
         <v>2.84</v>
       </c>
       <c r="D202" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>116.44</v>
       </c>
       <c r="E202" s="7"/>
@@ -10888,7 +10865,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D203" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72.569999999999993</v>
       </c>
       <c r="E203" s="7"/>
@@ -10904,7 +10881,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D204" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>296.48</v>
       </c>
       <c r="E204" s="7"/>
@@ -10920,7 +10897,7 @@
         <v>1.77</v>
       </c>
       <c r="D205" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44.25</v>
       </c>
       <c r="E205" s="7"/>
@@ -10936,7 +10913,7 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D206" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81.900000000000006</v>
       </c>
       <c r="E206" s="7"/>
@@ -10952,7 +10929,7 @@
         <v>1.87</v>
       </c>
       <c r="D207" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>93.5</v>
       </c>
       <c r="E207" s="7"/>
@@ -10968,7 +10945,7 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D208" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>224.36</v>
       </c>
       <c r="E208" s="7"/>
@@ -10984,7 +10961,7 @@
         <v>1.77</v>
       </c>
       <c r="D209" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>53.1</v>
       </c>
       <c r="E209" s="7"/>
@@ -11000,7 +10977,7 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D210" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33.6</v>
       </c>
       <c r="E210" s="7"/>
@@ -11016,7 +10993,7 @@
         <v>1.77</v>
       </c>
       <c r="D211" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86.73</v>
       </c>
       <c r="E211" s="7"/>
@@ -11032,7 +11009,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D212" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87.2</v>
       </c>
       <c r="E212" s="7"/>
@@ -11048,7 +11025,7 @@
         <v>1.77</v>
       </c>
       <c r="D213" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54.87</v>
       </c>
       <c r="E213" s="7"/>
@@ -11064,7 +11041,7 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D214" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66.150000000000006</v>
       </c>
       <c r="E214" s="7"/>
@@ -11080,7 +11057,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D215" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80.41</v>
       </c>
       <c r="E215" s="7"/>
@@ -11096,7 +11073,7 @@
         <v>2.84</v>
       </c>
       <c r="D216" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>133.47999999999999</v>
       </c>
       <c r="E216" s="7"/>
@@ -11112,7 +11089,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D217" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>381.5</v>
       </c>
       <c r="E217" s="7"/>
@@ -11128,7 +11105,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D218" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>43.01</v>
       </c>
       <c r="E218" s="7"/>
@@ -11144,7 +11121,7 @@
         <v>1.77</v>
       </c>
       <c r="D219" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70.8</v>
       </c>
       <c r="E219" s="7"/>
@@ -11160,7 +11137,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D220" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>189.66000000000003</v>
       </c>
       <c r="E220" s="7"/>
@@ -11176,7 +11153,7 @@
         <v>1.77</v>
       </c>
       <c r="D221" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76.11</v>
       </c>
       <c r="E221" s="7"/>
@@ -11192,7 +11169,7 @@
         <v>3.49</v>
       </c>
       <c r="D222" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>104.7</v>
       </c>
       <c r="E222" s="7"/>
@@ -11208,7 +11185,7 @@
         <v>1.77</v>
       </c>
       <c r="D223" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.95</v>
       </c>
       <c r="E223" s="7"/>
@@ -11224,7 +11201,7 @@
         <v>1.87</v>
       </c>
       <c r="D224" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>106.59</v>
       </c>
       <c r="E224" s="7"/>
@@ -11240,7 +11217,7 @@
         <v>1.68</v>
       </c>
       <c r="D225" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="E225" s="7"/>
@@ -11256,7 +11233,7 @@
         <v>1.87</v>
       </c>
       <c r="D226" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44.88</v>
       </c>
       <c r="E226" s="7"/>
@@ -11272,7 +11249,7 @@
         <v>1.87</v>
       </c>
       <c r="D227" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>155.21</v>
       </c>
       <c r="E227" s="7"/>
@@ -11288,7 +11265,7 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D228" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>352.16</v>
       </c>
       <c r="E228" s="7"/>
@@ -11304,7 +11281,7 @@
         <v>1.77</v>
       </c>
       <c r="D229" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>242.49</v>
       </c>
       <c r="E229" s="7"/>
@@ -11320,7 +11297,7 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D230" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>318.27999999999997</v>
       </c>
       <c r="E230" s="7"/>
@@ -11336,7 +11313,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D231" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63.58</v>
       </c>
       <c r="E231" s="7"/>
@@ -11352,7 +11329,7 @@
         <v>1.77</v>
       </c>
       <c r="D232" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35.4</v>
       </c>
       <c r="E232" s="7"/>
@@ -11368,7 +11345,7 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D233" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>303.02</v>
       </c>
       <c r="E233" s="7"/>
@@ -11384,7 +11361,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D234" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>394.57</v>
       </c>
       <c r="E234" s="7"/>
@@ -11400,7 +11377,7 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D235" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69.8</v>
       </c>
       <c r="E235" s="7"/>
@@ -11416,7 +11393,7 @@
         <v>1.87</v>
       </c>
       <c r="D236" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78.540000000000006</v>
       </c>
       <c r="E236" s="7"/>
@@ -11432,7 +11409,7 @@
         <v>2.84</v>
       </c>
       <c r="D237" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="E237" s="7"/>
@@ -11448,7 +11425,7 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D238" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>67.260000000000005</v>
       </c>
       <c r="E238" s="7"/>
@@ -11464,7 +11441,7 @@
         <v>3.49</v>
       </c>
       <c r="D239" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87.25</v>
       </c>
       <c r="E239" s="7"/>
@@ -11480,7 +11457,7 @@
         <v>1.87</v>
       </c>
       <c r="D240" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>179.52</v>
       </c>
       <c r="E240" s="7"/>
@@ -11496,7 +11473,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D241" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>74.12</v>
       </c>
       <c r="E241" s="7"/>
@@ -11512,7 +11489,7 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D242" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>458.15</v>
       </c>
       <c r="E242" s="7"/>
@@ -11528,7 +11505,7 @@
         <v>3.49</v>
       </c>
       <c r="D243" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>104.7</v>
       </c>
       <c r="E243" s="7"/>
@@ -11544,7 +11521,7 @@
         <v>1.87</v>
       </c>
       <c r="D244" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56.1</v>
       </c>
       <c r="E244" s="7"/>
@@ -11560,7 +11537,7 @@
         <v>2.84</v>
       </c>
       <c r="D245" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>124.96</v>
       </c>
       <c r="E245" s="7"/>
